--- a/100runs/run079/NotionalETEOutput079.xlsx
+++ b/100runs/run079/NotionalETEOutput079.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
   <si>
     <t>uniqueid</t>
   </si>
@@ -55,31 +55,25 @@
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
-  </si>
-  <si>
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_476.MISSILE_HELLMASKER_476</t>
+    <t>MISSILE_HELLMASKER_410.MISSILE_HELLMASKER_410</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_95.MISSILE_HIGHWIND_95</t>
+    <t>MISSILE_HIGHWIND_392.MISSILE_HIGHWIND_392</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_5.MISSILE_SOMERSAULT_5</t>
+    <t>MISSILE_BRAVER_137.MISSILE_BRAVER_137</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_350.MISSILE_BRAVER_350</t>
+    <t>MISSILE_HELLMASKER_477.MISSILE_HELLMASKER_477</t>
   </si>
   <si>
     <t>MISSILE_HELLMASKER</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
@@ -489,31 +483,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>185.0405472941754</v>
+        <v>1116576.740382173</v>
       </c>
       <c r="G2">
-        <v>-68.15471125504719</v>
+        <v>4841127.695852522</v>
       </c>
       <c r="H2">
-        <v>552.8115292612379</v>
+        <v>3985228.44171795</v>
       </c>
       <c r="I2">
-        <v>-1573.213945486059</v>
+        <v>1114862.904695842</v>
       </c>
       <c r="J2">
-        <v>3048.885856640148</v>
+        <v>4843227.750760393</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984368.371216451</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,31 +518,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>185.0405472941754</v>
+        <v>1116576.740382173</v>
       </c>
       <c r="G3">
-        <v>-68.15471125504719</v>
+        <v>4841127.695852522</v>
       </c>
       <c r="H3">
-        <v>552.8115292612379</v>
+        <v>3985228.44171795</v>
       </c>
       <c r="I3">
-        <v>-1542.154513146685</v>
+        <v>1114892.518733406</v>
       </c>
       <c r="J3">
-        <v>2974.719287003314</v>
+        <v>4843179.099127194</v>
       </c>
       <c r="K3">
-        <v>343.5941533488339</v>
+        <v>3984672.167059749</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,31 +553,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>185.0405472941754</v>
+        <v>1116576.740382173</v>
       </c>
       <c r="G4">
-        <v>-68.15471125504719</v>
+        <v>4841127.695852522</v>
       </c>
       <c r="H4">
-        <v>552.8115292612379</v>
+        <v>3985228.44171795</v>
       </c>
       <c r="I4">
-        <v>-1510.330270860107</v>
+        <v>1114922.8619894</v>
       </c>
       <c r="J4">
-        <v>2900.55271736648</v>
+        <v>4843130.447493994</v>
       </c>
       <c r="K4">
-        <v>670.0551272326376</v>
+        <v>3984960.81424975</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,31 +588,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>185.0405472941754</v>
+        <v>1116576.740382173</v>
       </c>
       <c r="G5">
-        <v>-68.15471125504719</v>
+        <v>4841127.695852522</v>
       </c>
       <c r="H5">
-        <v>552.8115292612379</v>
+        <v>3985228.44171795</v>
       </c>
       <c r="I5">
-        <v>-1477.722385884988</v>
+        <v>1114953.952420158</v>
       </c>
       <c r="J5">
-        <v>2826.386147729645</v>
+        <v>4843081.795860794</v>
       </c>
       <c r="K5">
-        <v>979.3829216514132</v>
+        <v>3985234.312786454</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,31 +623,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>185.0405472941754</v>
+        <v>1116576.740382173</v>
       </c>
       <c r="G6">
-        <v>-68.15471125504719</v>
+        <v>4841127.695852522</v>
       </c>
       <c r="H6">
-        <v>552.8115292612379</v>
+        <v>3985228.44171795</v>
       </c>
       <c r="I6">
-        <v>-1444.311561741062</v>
+        <v>1114985.808424171</v>
       </c>
       <c r="J6">
-        <v>2752.219578092811</v>
+        <v>4843033.144227595</v>
       </c>
       <c r="K6">
-        <v>1271.577536605159</v>
+        <v>3985492.662669862</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,31 +658,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>185.0405472941754</v>
+        <v>1116576.740382173</v>
       </c>
       <c r="G7">
-        <v>-68.15471125504719</v>
+        <v>4841127.695852522</v>
       </c>
       <c r="H7">
-        <v>552.8115292612379</v>
+        <v>3985228.44171795</v>
       </c>
       <c r="I7">
-        <v>-1410.078026789985</v>
+        <v>1115018.448852976</v>
       </c>
       <c r="J7">
-        <v>2678.053008455977</v>
+        <v>4842984.492594396</v>
       </c>
       <c r="K7">
-        <v>1546.638972093877</v>
+        <v>3985735.863899972</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -699,31 +693,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>185.0405472941754</v>
+        <v>1116576.740382173</v>
       </c>
       <c r="G8">
-        <v>-68.15471125504719</v>
+        <v>4841127.695852522</v>
       </c>
       <c r="H8">
-        <v>552.8115292612379</v>
+        <v>3985228.44171795</v>
       </c>
       <c r="I8">
-        <v>-1375.001522535013</v>
+        <v>1115051.893022311</v>
       </c>
       <c r="J8">
-        <v>2603.886438819143</v>
+        <v>4842935.840961196</v>
       </c>
       <c r="K8">
-        <v>1804.567228117566</v>
+        <v>3985963.916476785</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -734,31 +728,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>185.0405472941754</v>
+        <v>1116576.740382173</v>
       </c>
       <c r="G9">
-        <v>-68.15471125504719</v>
+        <v>4841127.695852522</v>
       </c>
       <c r="H9">
-        <v>552.8115292612379</v>
+        <v>3985228.44171795</v>
       </c>
       <c r="I9">
-        <v>-1339.061291632554</v>
+        <v>1115086.160723548</v>
       </c>
       <c r="J9">
-        <v>2529.719869182308</v>
+        <v>4842887.189327996</v>
       </c>
       <c r="K9">
-        <v>2045.362304676226</v>
+        <v>3986176.820400301</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,31 +763,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>185.0405472941754</v>
+        <v>1116576.740382173</v>
       </c>
       <c r="G10">
-        <v>-56.90044999792951</v>
+        <v>4841144.208682418</v>
       </c>
       <c r="H10">
-        <v>552.8115292612379</v>
+        <v>3985228.44171795</v>
       </c>
       <c r="I10">
-        <v>-1302.236065608529</v>
+        <v>1115121.272235402</v>
       </c>
       <c r="J10">
-        <v>2455.553299545475</v>
+        <v>4842838.537694797</v>
       </c>
       <c r="K10">
-        <v>2269.024201769857</v>
+        <v>3986374.57567052</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,31 +798,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>143.6130508752349</v>
+        <v>1116528.059895286</v>
       </c>
       <c r="G11">
-        <v>-45.64618874081182</v>
+        <v>4841160.721512312</v>
       </c>
       <c r="H11">
-        <v>681.0600841502089</v>
+        <v>3985427.696130393</v>
       </c>
       <c r="I11">
-        <v>-1264.504052272249</v>
+        <v>1115157.248335934</v>
       </c>
       <c r="J11">
-        <v>2381.386729908641</v>
+        <v>4842789.886061598</v>
       </c>
       <c r="K11">
-        <v>2475.552919398458</v>
+        <v>3986557.182287442</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -839,31 +833,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>119.2764749566687</v>
+        <v>1116499.462551317</v>
       </c>
       <c r="G12">
-        <v>-34.39192748369415</v>
+        <v>4841177.234342208</v>
       </c>
       <c r="H12">
-        <v>757.4514823221796</v>
+        <v>3985546.382248701</v>
       </c>
       <c r="I12">
-        <v>-1225.842922820379</v>
+        <v>1115194.110314844</v>
       </c>
       <c r="J12">
-        <v>2307.220160271806</v>
+        <v>4842741.234428397</v>
       </c>
       <c r="K12">
-        <v>2664.948457562031</v>
+        <v>3986724.640251068</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -874,31 +868,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>103.9134428153265</v>
+        <v>1116481.409809797</v>
       </c>
       <c r="G13">
-        <v>-23.13766622657646</v>
+        <v>4841193.747172104</v>
       </c>
       <c r="H13">
-        <v>812.0432514984659</v>
+        <v>3985631.199195768</v>
       </c>
       <c r="I13">
-        <v>-1186.229798623342</v>
+        <v>1115231.879986072</v>
       </c>
       <c r="J13">
-        <v>2233.053590634972</v>
+        <v>4842692.582795198</v>
       </c>
       <c r="K13">
-        <v>2837.210816260575</v>
+        <v>3986876.949561396</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -909,31 +903,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>93.19932656216302</v>
+        <v>1116468.819901141</v>
       </c>
       <c r="G14">
-        <v>-11.88340496945878</v>
+        <v>4841210.260001998</v>
       </c>
       <c r="H14">
-        <v>854.5538329084784</v>
+        <v>3985697.246107008</v>
       </c>
       <c r="I14">
-        <v>-1145.64123768636</v>
+        <v>1115270.579700707</v>
       </c>
       <c r="J14">
-        <v>2158.887020998137</v>
+        <v>4842643.931161999</v>
       </c>
       <c r="K14">
-        <v>2992.339995494091</v>
+        <v>3987014.110218427</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -944,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>85.20627498612949</v>
+        <v>1116459.427452259</v>
       </c>
       <c r="G15">
-        <v>-0.629143712341104</v>
+        <v>4841226.772831894</v>
       </c>
       <c r="H15">
-        <v>889.3732965045382</v>
+        <v>3985751.343650379</v>
       </c>
       <c r="I15">
-        <v>-1104.053220777097</v>
+        <v>1115310.232360211</v>
       </c>
       <c r="J15">
-        <v>2084.720451361303</v>
+        <v>4842595.279528799</v>
       </c>
       <c r="K15">
-        <v>3130.335995262576</v>
+        <v>3987136.122222161</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -979,31 +973,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>78.95682485023219</v>
+        <v>1116452.08386885</v>
       </c>
       <c r="G16">
-        <v>10.62511754477658</v>
+        <v>4841243.28566179</v>
       </c>
       <c r="H16">
-        <v>918.8628404727485</v>
+        <v>3985797.160320685</v>
       </c>
       <c r="I16">
-        <v>-1061.441137211716</v>
+        <v>1115350.861429977</v>
       </c>
       <c r="J16">
-        <v>2010.553881724469</v>
+        <v>4842546.627895599</v>
       </c>
       <c r="K16">
-        <v>3251.198815566034</v>
+        <v>3987242.985572599</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1014,31 +1008,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>73.9005646529062</v>
+        <v>1116446.142375168</v>
       </c>
       <c r="G17">
-        <v>21.87937880189427</v>
+        <v>4841259.798491686</v>
       </c>
       <c r="H17">
-        <v>944.4396490188001</v>
+        <v>3985836.897937716</v>
       </c>
       <c r="I17">
-        <v>-1017.779770290936</v>
+        <v>1115392.490953207</v>
       </c>
       <c r="J17">
-        <v>1936.387312087635</v>
+        <v>4842497.9762624</v>
       </c>
       <c r="K17">
-        <v>3354.928456404462</v>
+        <v>3987334.700269739</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1049,31 +1043,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>69.70206704268705</v>
+        <v>1116441.208818339</v>
       </c>
       <c r="G18">
-        <v>33.13364005901195</v>
+        <v>4841276.311321581</v>
       </c>
       <c r="H18">
-        <v>967.021440045163</v>
+        <v>3985871.982321371</v>
       </c>
       <c r="I18">
-        <v>-973.0432823774534</v>
+        <v>1115435.145565148</v>
       </c>
       <c r="J18">
-        <v>1862.220742450801</v>
+        <v>4842449.324629201</v>
       </c>
       <c r="K18">
-        <v>3441.524917777862</v>
+        <v>3987411.266313582</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1084,31 +1078,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>66.14415621572098</v>
+        <v>1116437.028000131</v>
       </c>
       <c r="G19">
-        <v>44.38790131612964</v>
+        <v>4841292.824151476</v>
       </c>
       <c r="H19">
-        <v>987.2366871222463</v>
+        <v>3985903.389904733</v>
       </c>
       <c r="I19">
-        <v>-927.2051996059148</v>
+        <v>1115478.850507666</v>
       </c>
       <c r="J19">
-        <v>1788.054172813966</v>
+        <v>4842400.672996001</v>
       </c>
       <c r="K19">
-        <v>3510.988199686232</v>
+        <v>3987472.683704128</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1119,31 +1113,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>63.07936314937325</v>
+        <v>1116433.426633127</v>
       </c>
       <c r="G20">
-        <v>55.64216257324731</v>
+        <v>4841309.336981372</v>
       </c>
       <c r="H20">
-        <v>1005.53469636346</v>
+        <v>3985931.818755907</v>
       </c>
       <c r="I20">
-        <v>-880.23839621639</v>
+        <v>1115523.631644187</v>
       </c>
       <c r="J20">
-        <v>1713.887603177133</v>
+        <v>4842352.021362801</v>
       </c>
       <c r="K20">
-        <v>3563.318302129574</v>
+        <v>3987518.952441378</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1154,31 +1148,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>60.40364043927838</v>
+        <v>1116430.282453643</v>
       </c>
       <c r="G21">
-        <v>66.89642383036498</v>
+        <v>4841325.849811267</v>
       </c>
       <c r="H21">
-        <v>1022.247838499289</v>
+        <v>3985957.785265387</v>
       </c>
       <c r="I21">
-        <v>-832.1150785020653</v>
+        <v>1115569.515474996</v>
       </c>
       <c r="J21">
-        <v>1639.721033540298</v>
+        <v>4842303.369729602</v>
       </c>
       <c r="K21">
-        <v>3598.515225107886</v>
+        <v>3987550.072525329</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1189,31 +1183,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>58.04123018114912</v>
+        <v>1116427.50644033</v>
       </c>
       <c r="G22">
-        <v>78.15068508748269</v>
+        <v>4841342.362641162</v>
       </c>
       <c r="H22">
-        <v>1037.628907092174</v>
+        <v>3985981.682187952</v>
       </c>
       <c r="I22">
-        <v>-782.8067683616655</v>
+        <v>1115616.529152926</v>
       </c>
       <c r="J22">
-        <v>1565.554463903464</v>
+        <v>4842254.718096402</v>
       </c>
       <c r="K22">
-        <v>3616.57896862117</v>
+        <v>3987566.043955985</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1224,31 +1218,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>55.9355030650085</v>
+        <v>1116425.032049403</v>
       </c>
       <c r="G23">
-        <v>89.40494634460036</v>
+        <v>4841358.875471058</v>
       </c>
       <c r="H23">
-        <v>1051.874655081818</v>
+        <v>3986003.815210409</v>
       </c>
       <c r="I23">
-        <v>-732.2842864468719</v>
+        <v>1115664.700499424</v>
       </c>
       <c r="J23">
-        <v>1491.38789426663</v>
+        <v>4842206.066463203</v>
       </c>
       <c r="K23">
-        <v>3617.509532669425</v>
+        <v>3987566.866733343</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1259,31 +1253,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>54.04317469577989</v>
+        <v>1116422.808418377</v>
       </c>
       <c r="G24">
-        <v>100.6592076017181</v>
+        <v>4841375.388300953</v>
       </c>
       <c r="H24">
-        <v>1065.141225534917</v>
+        <v>3986024.426925707</v>
       </c>
       <c r="I24">
-        <v>-680.5177348947578</v>
+        <v>1115714.058021013</v>
       </c>
       <c r="J24">
-        <v>1417.221324629796</v>
+        <v>4842157.414830003</v>
       </c>
       <c r="K24">
-        <v>3601.30691725265</v>
+        <v>3987552.540857404</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1294,31 +1288,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>52.33052208216165</v>
+        <v>1116420.79592015</v>
       </c>
       <c r="G25">
-        <v>111.9134688588357</v>
+        <v>4841391.901130849</v>
       </c>
       <c r="H25">
-        <v>1077.554611686983</v>
+        <v>3986043.713084263</v>
       </c>
       <c r="I25">
-        <v>-627.4764796350266</v>
+        <v>1115764.630926162</v>
       </c>
       <c r="J25">
-        <v>1343.054754992962</v>
+        <v>4842108.763196804</v>
       </c>
       <c r="K25">
-        <v>3567.971122370847</v>
+        <v>3987523.066328168</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1329,31 +1323,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>50.77083208841021</v>
+        <v>1116418.963164737</v>
       </c>
       <c r="G26">
-        <v>123.1677301159534</v>
+        <v>4841408.413960745</v>
       </c>
       <c r="H26">
-        <v>1089.217951978841</v>
+        <v>3986061.833927956</v>
       </c>
       <c r="I26">
-        <v>-573.1291322615848</v>
+        <v>1115816.449142575</v>
       </c>
       <c r="J26">
-        <v>1268.888185356127</v>
+        <v>4842060.111563604</v>
       </c>
       <c r="K26">
-        <v>3517.502148024015</v>
+        <v>3987478.443145635</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1364,31 +1358,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>49.34263473260351</v>
+        <v>1116417.284923264</v>
       </c>
       <c r="G27">
-        <v>134.4219913730711</v>
+        <v>4841424.926790639</v>
       </c>
       <c r="H27">
-        <v>1100.216744004898</v>
+        <v>3986078.92229082</v>
       </c>
       <c r="I27">
-        <v>-517.443531457715</v>
+        <v>1115869.543334895</v>
       </c>
       <c r="J27">
-        <v>1194.721615719293</v>
+        <v>4842011.459930404</v>
       </c>
       <c r="K27">
-        <v>3449.899994212155</v>
+        <v>3987418.671309805</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1399,31 +1393,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>48.02845137997584</v>
+        <v>1116415.740656991</v>
       </c>
       <c r="G28">
-        <v>145.6762526301888</v>
+        <v>4841441.439620535</v>
       </c>
       <c r="H28">
-        <v>1110.62265150014</v>
+        <v>3986095.089513801</v>
       </c>
       <c r="I28">
-        <v>-460.3867239638634</v>
+        <v>1115923.944922855</v>
       </c>
       <c r="J28">
-        <v>1120.555046082459</v>
+        <v>4841962.808297205</v>
       </c>
       <c r="K28">
-        <v>3365.164660935265</v>
+        <v>3987343.750820679</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1434,31 +1428,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>46.81388954521994</v>
+        <v>1116414.313453646</v>
       </c>
       <c r="G29">
-        <v>156.9305138873065</v>
+        <v>4841457.952450431</v>
       </c>
       <c r="H29">
-        <v>1120.496336725423</v>
+        <v>3986110.429845315</v>
       </c>
       <c r="I29">
-        <v>-401.9249450767755</v>
+        <v>1115979.686099869</v>
       </c>
       <c r="J29">
-        <v>1046.388476445625</v>
+        <v>4841914.156664005</v>
       </c>
       <c r="K29">
-        <v>3263.296148193346</v>
+        <v>3987253.681678255</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1469,31 +1463,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>45.6869763975394</v>
+        <v>1116412.989244233</v>
       </c>
       <c r="G30">
-        <v>168.1847751444241</v>
+        <v>4841474.465280326</v>
       </c>
       <c r="H30">
-        <v>1129.889603125705</v>
+        <v>3986125.023770207</v>
       </c>
       <c r="I30">
-        <v>-342.0235986684436</v>
+        <v>1116036.799852088</v>
       </c>
       <c r="J30">
-        <v>972.2219068087903</v>
+        <v>4841865.505030806</v>
       </c>
       <c r="K30">
-        <v>3144.294455986398</v>
+        <v>3987148.463882534</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1504,31 +1498,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>44.63766002714868</v>
+        <v>1116411.756216988</v>
       </c>
       <c r="G31">
-        <v>179.4390364015418</v>
+        <v>4841490.978110221</v>
       </c>
       <c r="H31">
-        <v>1138.847040485629</v>
+        <v>3986138.940565758</v>
       </c>
       <c r="I31">
-        <v>-280.6472367130349</v>
+        <v>1116095.31997791</v>
       </c>
       <c r="J31">
-        <v>898.0553371719564</v>
+        <v>4841816.853397606</v>
       </c>
       <c r="K31">
-        <v>3008.159584314422</v>
+        <v>3987028.097433517</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1539,31 +1533,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>43.65743078109258</v>
+        <v>1116410.604372414</v>
       </c>
       <c r="G32">
-        <v>190.6932976586595</v>
+        <v>4841507.490940117</v>
       </c>
       <c r="H32">
-        <v>1147.407305070456</v>
+        <v>3986152.240290591</v>
       </c>
       <c r="I32">
-        <v>-217.7595383096919</v>
+        <v>1116155.281107994</v>
       </c>
       <c r="J32">
-        <v>823.8887675351219</v>
+        <v>4841768.201764407</v>
       </c>
       <c r="K32">
-        <v>2854.891533177416</v>
+        <v>3986892.582331202</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1574,31 +1568,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>42.73902995646939</v>
+        <v>1116409.525180979</v>
       </c>
       <c r="G33">
-        <v>201.9475589157772</v>
+        <v>4841524.003770012</v>
       </c>
       <c r="H33">
-        <v>1155.604127821046</v>
+        <v>3986164.975351056</v>
       </c>
       <c r="I33">
-        <v>-153.3232881887879</v>
+        <v>1116216.718725743</v>
       </c>
       <c r="J33">
-        <v>749.722197898288</v>
+        <v>4841719.550131207</v>
       </c>
       <c r="K33">
-        <v>2684.490302575382</v>
+        <v>3986741.91857559</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1609,31 +1603,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>41.87622300366907</v>
+        <v>1116408.511316609</v>
       </c>
       <c r="G34">
-        <v>213.2018201728949</v>
+        <v>4841540.516599908</v>
       </c>
       <c r="H34">
-        <v>1163.467117111498</v>
+        <v>3986177.191748444</v>
       </c>
       <c r="I34">
-        <v>-87.30035468891963</v>
+        <v>1116279.669188307</v>
       </c>
       <c r="J34">
-        <v>675.5556282614536</v>
+        <v>4841670.898498008</v>
       </c>
       <c r="K34">
-        <v>2496.955892508318</v>
+        <v>3986576.106166681</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1644,31 +1638,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>41.06362101727608</v>
+        <v>1116407.556446927</v>
       </c>
       <c r="G35">
-        <v>224.4560814300126</v>
+        <v>4841557.029429803</v>
       </c>
       <c r="H35">
-        <v>1171.022404342287</v>
+        <v>3986188.930082021</v>
       </c>
       <c r="I35">
-        <v>-19.6516671916025</v>
+        <v>1116344.169748098</v>
       </c>
       <c r="J35">
-        <v>601.3890586246193</v>
+        <v>4841622.246864808</v>
       </c>
       <c r="K35">
-        <v>2292.288302976225</v>
+        <v>3986395.145104475</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1679,31 +1673,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>40.29653882207064</v>
+        <v>1116406.655066492</v>
       </c>
       <c r="G36">
-        <v>235.7103426871303</v>
+        <v>4841573.542259699</v>
       </c>
       <c r="H36">
-        <v>1178.293167905525</v>
+        <v>3986200.226363083</v>
       </c>
       <c r="I36">
-        <v>49.66280699968495</v>
+        <v>1116410.258574835</v>
       </c>
       <c r="J36">
-        <v>527.2224889877854</v>
+        <v>4841573.595231608</v>
       </c>
       <c r="K36">
-        <v>2070.487533979104</v>
+        <v>3986199.035388973</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1714,31 +1708,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>39.57088110986575</v>
+        <v>1116405.802363003</v>
       </c>
       <c r="G37">
-        <v>246.9646039442479</v>
+        <v>4841590.055089594</v>
       </c>
       <c r="H37">
-        <v>1185.300062023991</v>
+        <v>3986211.112681231</v>
       </c>
       <c r="I37">
-        <v>120.6840863497858</v>
+        <v>1116477.974778129</v>
       </c>
       <c r="J37">
-        <v>453.0559193509511</v>
+        <v>4841524.943598409</v>
       </c>
       <c r="K37">
-        <v>1831.553585516954</v>
+        <v>3985987.777020173</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1749,31 +1743,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>38.88305030412079</v>
+        <v>1116404.994109031</v>
       </c>
       <c r="G38">
-        <v>258.2188652013656</v>
+        <v>4841606.567919489</v>
       </c>
       <c r="H38">
-        <v>1192.061570464106</v>
+        <v>3986221.617753922</v>
       </c>
       <c r="I38">
-        <v>193.4541993655045</v>
+        <v>1116547.358430632</v>
       </c>
       <c r="J38">
-        <v>378.889349714117</v>
+        <v>4841476.29196521</v>
       </c>
       <c r="K38">
-        <v>1575.486457589776</v>
+        <v>3985761.369998076</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1784,31 +1778,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>38.22987141820157</v>
+        <v>1116404.226573724</v>
       </c>
       <c r="G39">
-        <v>269.4731264584833</v>
+        <v>4841623.080749385</v>
       </c>
       <c r="H39">
-        <v>1198.594300382833</v>
+        <v>3986231.767382997</v>
       </c>
       <c r="I39">
-        <v>268.0162094669582</v>
+        <v>1116618.450591746</v>
       </c>
       <c r="J39">
-        <v>304.7227800772827</v>
+        <v>4841427.64033201</v>
       </c>
       <c r="K39">
-        <v>1302.286150197567</v>
+        <v>3985519.814322682</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1819,31 +1813,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>37.60853032437091</v>
+        <v>1116403.496450265</v>
       </c>
       <c r="G40">
-        <v>280.727387715601</v>
+        <v>4841639.593579281</v>
       </c>
       <c r="H40">
-        <v>1204.913228070259</v>
+        <v>3986241.584836494</v>
       </c>
       <c r="I40">
-        <v>344.4142404713693</v>
+        <v>1116691.293331924</v>
       </c>
       <c r="J40">
-        <v>230.5562104404484</v>
+        <v>4841378.98869881</v>
       </c>
       <c r="K40">
-        <v>1011.95266334033</v>
+        <v>3985263.109993991</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1854,31 +1848,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>37.01652269459299</v>
+        <v>1116402.800795877</v>
       </c>
       <c r="G41">
-        <v>291.9816489727186</v>
+        <v>4841656.106409175</v>
       </c>
       <c r="H41">
-        <v>1211.031905738976</v>
+        <v>3986251.091169917</v>
       </c>
       <c r="I41">
-        <v>422.6935027043632</v>
+        <v>1116765.929757565</v>
       </c>
       <c r="J41">
-        <v>156.3896408036144</v>
+        <v>4841330.337065611</v>
       </c>
       <c r="K41">
-        <v>704.4859970180643</v>
+        <v>3984991.257012004</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1889,31 +1883,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>36.45161149983826</v>
+        <v>1116402.13698188</v>
       </c>
       <c r="G42">
-        <v>303.2359102298363</v>
+        <v>4841672.619239071</v>
       </c>
       <c r="H42">
-        <v>1216.962636542596</v>
+        <v>3986260.305498161</v>
       </c>
       <c r="I42">
-        <v>502.9003197542455</v>
+        <v>1116842.404036523</v>
       </c>
       <c r="J42">
-        <v>82.22307116678009</v>
+        <v>4841281.685432413</v>
       </c>
       <c r="K42">
-        <v>379.8861512307689</v>
+        <v>3984704.255376718</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1924,31 +1918,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>35.91179142305221</v>
+        <v>1116401.502651871</v>
       </c>
       <c r="G43">
-        <v>314.4901714869541</v>
+        <v>4841689.132068967</v>
       </c>
       <c r="H43">
-        <v>1222.716623506697</v>
+        <v>3986269.245226899</v>
       </c>
       <c r="I43">
-        <v>585.0821558850618</v>
+        <v>1116920.761424245</v>
       </c>
       <c r="J43">
-        <v>8.056501529945756</v>
+        <v>4841233.033799212</v>
       </c>
       <c r="K43">
-        <v>38.15312597844492</v>
+        <v>3984402.105088137</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1959,31 +1953,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>35.39525889514249</v>
+        <v>1116400.895686519</v>
       </c>
       <c r="G44">
-        <v>325.7444327440717</v>
+        <v>4841705.644898862</v>
       </c>
       <c r="H44">
-        <v>1228.30409690364</v>
+        <v>3986277.926250476</v>
       </c>
       <c r="I44">
-        <v>669.2876441246958</v>
+        <v>1117001.048290552</v>
       </c>
       <c r="J44">
-        <v>-66.11006810688822</v>
+        <v>4841184.382166013</v>
       </c>
       <c r="K44">
-        <v>-320.713078738907</v>
+        <v>3984084.806146258</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1994,31 +1988,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>34.90038673352033</v>
+        <v>1116400.314173759</v>
       </c>
       <c r="G45">
-        <v>336.9986940011893</v>
+        <v>4841722.157728758</v>
       </c>
       <c r="H45">
-        <v>1233.734423710181</v>
+        <v>3986286.363121972</v>
       </c>
       <c r="I45">
-        <v>755.5666150446026</v>
+        <v>1117083.31214708</v>
       </c>
       <c r="J45">
-        <v>-140.2766377437225</v>
+        <v>4841135.730532814</v>
       </c>
       <c r="K45">
-        <v>-696.7124629212889</v>
+        <v>3983752.358551083</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2029,31 +2023,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>34.42570257056632</v>
+        <v>1116399.756383447</v>
       </c>
       <c r="G46">
-        <v>348.2529552583071</v>
+        <v>4841738.670558653</v>
       </c>
       <c r="H46">
-        <v>1239.016202089708</v>
+        <v>3986294.569199995</v>
       </c>
       <c r="I46">
-        <v>843.9701262482149</v>
+        <v>1117167.601675393</v>
       </c>
       <c r="J46">
-        <v>-214.4432073805569</v>
+        <v>4841087.078899614</v>
       </c>
       <c r="K46">
-        <v>-1089.845026568701</v>
+        <v>3983404.76230261</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2064,31 +2058,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>33.96987042053384</v>
+        <v>1116399.220745696</v>
       </c>
       <c r="G47">
-        <v>359.5072165154247</v>
+        <v>4841755.183388548</v>
       </c>
       <c r="H47">
-        <v>1244.157343292361</v>
+        <v>3986302.556775921</v>
       </c>
       <c r="I47">
-        <v>934.5504925854769</v>
+        <v>1117253.966755796</v>
       </c>
       <c r="J47">
-        <v>-288.6097770173912</v>
+        <v>4841038.427266414</v>
       </c>
       <c r="K47">
-        <v>-1500.11076968114</v>
+        <v>3983042.01740084</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2099,31 +2093,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>33.53167485926716</v>
+        <v>1116398.70583229</v>
       </c>
       <c r="G48">
-        <v>370.7614777725424</v>
+        <v>4841771.696218444</v>
       </c>
       <c r="H48">
-        <v>1249.16514293166</v>
+        <v>3986310.337184641</v>
       </c>
       <c r="I48">
-        <v>1027.361317111385</v>
+        <v>1117342.45849685</v>
       </c>
       <c r="J48">
-        <v>-362.7763466542248</v>
+        <v>4840989.775633215</v>
       </c>
       <c r="K48">
-        <v>-1927.509692258606</v>
+        <v>3982664.123845773</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2134,31 +2128,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>33.11000739011713</v>
+        <v>1116398.210340661</v>
       </c>
       <c r="G49">
-        <v>382.0157390296602</v>
+        <v>4841788.209048339</v>
       </c>
       <c r="H49">
-        <v>1254.046343249496</v>
+        <v>3986317.920901293</v>
       </c>
       <c r="I49">
-        <v>1122.457522806851</v>
+        <v>1117433.129265616</v>
       </c>
       <c r="J49">
-        <v>-436.9429162910592</v>
+        <v>4840941.124000016</v>
       </c>
       <c r="K49">
-        <v>-2372.041794301104</v>
+        <v>3982271.08163741</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2169,31 +2163,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>32.70385464782698</v>
+        <v>1116397.733080026</v>
       </c>
       <c r="G50">
-        <v>393.2700002867778</v>
+        <v>4841804.721878235</v>
       </c>
       <c r="H50">
-        <v>1258.807187703083</v>
+        <v>3986325.317626077</v>
       </c>
       <c r="I50">
-        <v>1219.895385080662</v>
+        <v>1117526.032718647</v>
       </c>
       <c r="J50">
-        <v>-511.1094859278935</v>
+        <v>4840892.472366815</v>
       </c>
       <c r="K50">
-        <v>-2833.707075808631</v>
+        <v>3981862.890775749</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2204,31 +2198,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>32.31228815462042</v>
+        <v>1116397.272959352</v>
       </c>
       <c r="G51">
-        <v>404.5242615438954</v>
+        <v>4841821.23470813</v>
       </c>
       <c r="H51">
-        <v>1263.453468982716</v>
+        <v>3986332.536358851</v>
       </c>
       <c r="I51">
-        <v>1319.732565071777</v>
+        <v>1117621.22383374</v>
       </c>
       <c r="J51">
-        <v>-585.2760555647278</v>
+        <v>4840843.820733616</v>
       </c>
       <c r="K51">
-        <v>-3312.505536781187</v>
+        <v>3981439.551260791</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2239,31 +2233,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>31.9344553927866</v>
+        <v>1116396.828976867</v>
       </c>
       <c r="G52">
-        <v>415.7785228010132</v>
+        <v>4841837.747538025</v>
       </c>
       <c r="H52">
-        <v>1267.990571386767</v>
+        <v>3986339.585464975</v>
       </c>
       <c r="I52">
-        <v>1422.028143771652</v>
+        <v>1117718.758942467</v>
       </c>
       <c r="J52">
-        <v>-659.4426252015621</v>
+        <v>4840795.169100417</v>
       </c>
       <c r="K52">
-        <v>-3808.437177218771</v>
+        <v>3981001.063092536</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2274,31 +2268,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>31.56957199840417</v>
+        <v>1116396.400210883</v>
       </c>
       <c r="G53">
-        <v>427.0327840581309</v>
+        <v>4841854.260367922</v>
       </c>
       <c r="H53">
-        <v>1272.423508331399</v>
+        <v>3986346.472733584</v>
       </c>
       <c r="I53">
-        <v>1526.842656986802</v>
+        <v>1117818.695763516</v>
       </c>
       <c r="J53">
-        <v>-733.6091948383958</v>
+        <v>4840746.517467218</v>
       </c>
       <c r="K53">
-        <v>-4321.501997121381</v>
+        <v>3980547.426270984</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2309,31 +2303,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>31.21691491354692</v>
+        <v>1116395.98581175</v>
       </c>
       <c r="G54">
-        <v>438.2870453152485</v>
+        <v>4841870.773197817</v>
       </c>
       <c r="H54">
-        <v>1276.756955650311</v>
+        <v>3986353.205429326</v>
       </c>
       <c r="I54">
-        <v>1634.238131162294</v>
+        <v>1117921.093436844</v>
       </c>
       <c r="J54">
-        <v>-807.7757644752301</v>
+        <v>4840697.865834017</v>
       </c>
       <c r="K54">
-        <v>-4851.699996489024</v>
+        <v>3980078.640796136</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2344,31 +2338,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>82.21277751964595</v>
+        <v>1116578.406500794</v>
       </c>
       <c r="G55">
-        <v>-84.79174800014302</v>
+        <v>4841122.975285509</v>
       </c>
       <c r="H55">
-        <v>998.530480612983</v>
+        <v>3985230.257749162</v>
       </c>
       <c r="I55">
-        <v>-424.6304406057395</v>
+        <v>1114861.205450013</v>
       </c>
       <c r="J55">
-        <v>1952.801007509227</v>
+        <v>4843225.26847803</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984368.635433584</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2379,31 +2373,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>82.21277751964595</v>
+        <v>1116578.406500794</v>
       </c>
       <c r="G56">
-        <v>-84.79174800014302</v>
+        <v>4841122.975285509</v>
       </c>
       <c r="H56">
-        <v>998.530480612983</v>
+        <v>3985230.257749162</v>
       </c>
       <c r="I56">
-        <v>-416.2471050288623</v>
+        <v>1114890.81944244</v>
       </c>
       <c r="J56">
-        <v>1905.297572247823</v>
+        <v>4843176.616869766</v>
       </c>
       <c r="K56">
-        <v>34.97079669329316</v>
+        <v>3984672.431297027</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2414,31 +2408,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>82.21277751964595</v>
+        <v>1116578.406500794</v>
       </c>
       <c r="G57">
-        <v>-84.79174800014302</v>
+        <v>4841122.975285509</v>
       </c>
       <c r="H57">
-        <v>998.530480612983</v>
+        <v>3985230.257749162</v>
       </c>
       <c r="I57">
-        <v>-407.6573375259318</v>
+        <v>1114921.162652186</v>
       </c>
       <c r="J57">
-        <v>1857.79413698642</v>
+        <v>4843127.965261501</v>
       </c>
       <c r="K57">
-        <v>68.19778916308145</v>
+        <v>3984961.07850617</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2449,31 +2443,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>82.21277751964595</v>
+        <v>1116578.406500794</v>
       </c>
       <c r="G58">
-        <v>-84.79174800014302</v>
+        <v>4841122.975285509</v>
       </c>
       <c r="H58">
-        <v>998.530480612983</v>
+        <v>3985230.257749162</v>
       </c>
       <c r="I58">
-        <v>-398.8560549006828</v>
+        <v>1114952.253035557</v>
       </c>
       <c r="J58">
-        <v>1810.290701725017</v>
+        <v>4843079.313653237</v>
       </c>
       <c r="K58">
-        <v>99.6809774093651</v>
+        <v>3985234.577061011</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2484,31 +2478,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>82.21277751964595</v>
+        <v>1116578.406500794</v>
       </c>
       <c r="G59">
-        <v>-84.79174800014302</v>
+        <v>4841122.975285509</v>
       </c>
       <c r="H59">
-        <v>998.530480612983</v>
+        <v>3985230.257749162</v>
       </c>
       <c r="I59">
-        <v>-389.8380487878186</v>
+        <v>1114984.108991015</v>
       </c>
       <c r="J59">
-        <v>1762.787266463614</v>
+        <v>4843030.662044973</v>
       </c>
       <c r="K59">
-        <v>129.4203614321439</v>
+        <v>3985492.92696155</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2519,31 +2513,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>82.21277751964595</v>
+        <v>1116578.406500794</v>
       </c>
       <c r="G60">
-        <v>-84.79174800014302</v>
+        <v>4841122.975285509</v>
       </c>
       <c r="H60">
-        <v>998.530480612983</v>
+        <v>3985230.257749162</v>
       </c>
       <c r="I60">
-        <v>-380.5979825708385</v>
+        <v>1115016.74937007</v>
       </c>
       <c r="J60">
-        <v>1715.283831202211</v>
+        <v>4842982.010436709</v>
       </c>
       <c r="K60">
-        <v>157.4159412314181</v>
+        <v>3985736.128207788</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2554,31 +2548,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>82.21277751964595</v>
+        <v>1116578.406500794</v>
       </c>
       <c r="G61">
-        <v>-84.79174800014302</v>
+        <v>4841122.975285509</v>
       </c>
       <c r="H61">
-        <v>998.530480612983</v>
+        <v>3985230.257749162</v>
       </c>
       <c r="I61">
-        <v>-371.1303882239704</v>
+        <v>1115050.193488431</v>
       </c>
       <c r="J61">
-        <v>1667.780395940807</v>
+        <v>4842933.358828444</v>
       </c>
       <c r="K61">
-        <v>183.6677168071875</v>
+        <v>3985964.180799724</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2589,31 +2583,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>82.21277751964595</v>
+        <v>1116578.406500794</v>
       </c>
       <c r="G62">
-        <v>-84.79174800014302</v>
+        <v>4841122.975285509</v>
       </c>
       <c r="H62">
-        <v>998.530480612983</v>
+        <v>3985230.257749162</v>
       </c>
       <c r="I62">
-        <v>-361.4296630763378</v>
+        <v>1115084.461137438</v>
       </c>
       <c r="J62">
-        <v>1620.276960679404</v>
+        <v>4842884.70722018</v>
       </c>
       <c r="K62">
-        <v>208.1756881594522</v>
+        <v>3986177.084737359</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2624,31 +2618,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>82.21277751964595</v>
+        <v>1116578.406500794</v>
       </c>
       <c r="G63">
-        <v>-70.79024367463497</v>
+        <v>4841139.488099303</v>
       </c>
       <c r="H63">
-        <v>998.530480612983</v>
+        <v>3985230.257749162</v>
       </c>
       <c r="I63">
-        <v>-351.4900664964482</v>
+        <v>1115119.572595776</v>
       </c>
       <c r="J63">
-        <v>1572.773525418001</v>
+        <v>4842836.055611916</v>
       </c>
       <c r="K63">
-        <v>230.9398552882121</v>
+        <v>3986374.840020691</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2659,31 +2653,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>63.80670600672686</v>
+        <v>1116529.725941268</v>
       </c>
       <c r="G64">
-        <v>-56.78873934912692</v>
+        <v>4841156.000913097</v>
       </c>
       <c r="H64">
-        <v>1230.182832947857</v>
+        <v>3985429.512252402</v>
       </c>
       <c r="I64">
-        <v>-341.30571649504</v>
+        <v>1115155.548641474</v>
       </c>
       <c r="J64">
-        <v>1525.270090156598</v>
+        <v>4842787.404003652</v>
       </c>
       <c r="K64">
-        <v>251.9602181934672</v>
+        <v>3986557.446649723</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2694,31 +2688,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>52.99406234110774</v>
+        <v>1116501.128554628</v>
       </c>
       <c r="G65">
-        <v>-42.78723502361888</v>
+        <v>4841172.51372689</v>
       </c>
       <c r="H65">
-        <v>1368.166821149574</v>
+        <v>3985548.198424795</v>
       </c>
       <c r="I65">
-        <v>-330.8705862442773</v>
+        <v>1115192.4105642</v>
       </c>
       <c r="J65">
-        <v>1477.766654895195</v>
+        <v>4842738.752395387</v>
       </c>
       <c r="K65">
-        <v>271.2367768752177</v>
+        <v>3986724.904624453</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2729,31 +2723,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>46.16832840369469</v>
+        <v>1116483.075786169</v>
       </c>
       <c r="G66">
-        <v>-28.78573069811083</v>
+        <v>4841189.026540685</v>
       </c>
       <c r="H66">
-        <v>1466.774651536103</v>
+        <v>3985633.015410512</v>
       </c>
       <c r="I66">
-        <v>-320.1785005112332</v>
+        <v>1115230.180177861</v>
       </c>
       <c r="J66">
-        <v>1430.263219633792</v>
+        <v>4842690.100787123</v>
       </c>
       <c r="K66">
-        <v>288.7695313334634</v>
+        <v>3986877.213944881</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2764,31 +2758,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>41.40808926302351</v>
+        <v>1116470.485858727</v>
       </c>
       <c r="G67">
-        <v>-14.78422637260278</v>
+        <v>4841205.539354478</v>
       </c>
       <c r="H67">
-        <v>1543.560516228911</v>
+        <v>3985699.062351849</v>
       </c>
       <c r="I67">
-        <v>-309.2231320035516</v>
+        <v>1115268.87983351</v>
       </c>
       <c r="J67">
-        <v>1382.759784372388</v>
+        <v>4842641.449178859</v>
       </c>
       <c r="K67">
-        <v>304.5584815682044</v>
+        <v>3987014.374611008</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2799,31 +2793,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>37.85680831118542</v>
+        <v>1116461.09339583</v>
       </c>
       <c r="G68">
-        <v>-0.7827220470947386</v>
+        <v>4841222.052168272</v>
       </c>
       <c r="H68">
-        <v>1606.454095466889</v>
+        <v>3985753.159919872</v>
       </c>
       <c r="I68">
-        <v>-297.9979976251225</v>
+        <v>1115308.532432577</v>
       </c>
       <c r="J68">
-        <v>1335.256349110985</v>
+        <v>4842592.797570596</v>
       </c>
       <c r="K68">
-        <v>318.6036275794406</v>
+        <v>3987136.386622833</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2834,31 +2828,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>35.08020252853046</v>
+        <v>1116453.749801463</v>
       </c>
       <c r="G69">
-        <v>13.21878227841331</v>
+        <v>4841238.564982065</v>
       </c>
       <c r="H69">
-        <v>1659.720366072688</v>
+        <v>3985798.976611056</v>
       </c>
       <c r="I69">
-        <v>-286.496454639559</v>
+        <v>1115349.161440416</v>
       </c>
       <c r="J69">
-        <v>1287.752913849582</v>
+        <v>4842544.145962331</v>
       </c>
       <c r="K69">
-        <v>330.904969367172</v>
+        <v>3987243.249980357</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2869,31 +2863,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>32.83372627906636</v>
+        <v>1116447.808298916</v>
       </c>
       <c r="G70">
-        <v>27.22028660392136</v>
+        <v>4841255.077795859</v>
       </c>
       <c r="H70">
-        <v>1705.919154589572</v>
+        <v>3985838.714246196</v>
       </c>
       <c r="I70">
-        <v>-274.7116967392013</v>
+        <v>1115390.790900196</v>
       </c>
       <c r="J70">
-        <v>1240.249478588179</v>
+        <v>4842495.494354066</v>
       </c>
       <c r="K70">
-        <v>341.4625069313988</v>
+        <v>3987334.964683578</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2904,31 +2898,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>30.96835052768056</v>
+        <v>1116442.874734725</v>
       </c>
       <c r="G71">
-        <v>41.2217909294294</v>
+        <v>4841271.590609654</v>
       </c>
       <c r="H71">
-        <v>1746.708113308992</v>
+        <v>3985873.798645838</v>
       </c>
       <c r="I71">
-        <v>-262.6367500173259</v>
+        <v>1115433.445447124</v>
       </c>
       <c r="J71">
-        <v>1192.746043326776</v>
+        <v>4842446.842745802</v>
       </c>
       <c r="K71">
-        <v>350.2762402721208</v>
+        <v>3987411.530732499</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2939,31 +2933,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>29.38758493046755</v>
+        <v>1116438.693910278</v>
       </c>
       <c r="G72">
-        <v>55.22329525493746</v>
+        <v>4841288.103423446</v>
       </c>
       <c r="H72">
-        <v>1783.222439279302</v>
+        <v>3985905.206243512</v>
       </c>
       <c r="I72">
-        <v>-250.2644688411715</v>
+        <v>1115477.150323028</v>
       </c>
       <c r="J72">
-        <v>1145.242608065372</v>
+        <v>4842398.191137538</v>
       </c>
       <c r="K72">
-        <v>357.3461693893381</v>
+        <v>3987472.948127118</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2974,31 +2968,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>28.02590958853922</v>
+        <v>1116435.0925379</v>
       </c>
       <c r="G73">
-        <v>69.22479958044551</v>
+        <v>4841304.616237241</v>
       </c>
       <c r="H73">
-        <v>1816.273703579645</v>
+        <v>3985933.63510764</v>
       </c>
       <c r="I73">
-        <v>-237.5875316233443</v>
+        <v>1115521.931391294</v>
       </c>
       <c r="J73">
-        <v>1097.739172803969</v>
+        <v>4842349.539529273</v>
       </c>
       <c r="K73">
-        <v>362.6722942830506</v>
+        <v>3987519.216867436</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3009,31 +3003,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>26.8370966549092</v>
+        <v>1116431.948353725</v>
       </c>
       <c r="G74">
-        <v>83.22630390595354</v>
+        <v>4841321.129051035</v>
       </c>
       <c r="H74">
-        <v>1846.462259653619</v>
+        <v>3985959.601628954</v>
       </c>
       <c r="I74">
-        <v>-224.5984364890965</v>
+        <v>1115567.815152169</v>
       </c>
       <c r="J74">
-        <v>1050.235737542566</v>
+        <v>4842300.887921009</v>
       </c>
       <c r="K74">
-        <v>366.2546149532583</v>
+        <v>3987550.336953452</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3044,31 +3038,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>25.78748719470294</v>
+        <v>1116429.172336269</v>
       </c>
       <c r="G75">
-        <v>97.22780823146161</v>
+        <v>4841337.641864829</v>
       </c>
       <c r="H75">
-        <v>1874.24472257533</v>
+        <v>3985983.498562408</v>
       </c>
       <c r="I75">
-        <v>-211.2894968369162</v>
+        <v>1115614.828758442</v>
       </c>
       <c r="J75">
-        <v>1002.732302281163</v>
+        <v>4842252.236312745</v>
       </c>
       <c r="K75">
-        <v>368.0931313999614</v>
+        <v>3987566.308385166</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3079,31 +3073,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>24.85192103124401</v>
+        <v>1116426.69794165</v>
       </c>
       <c r="G76">
-        <v>111.2293125569696</v>
+        <v>4841354.154678622</v>
       </c>
       <c r="H76">
-        <v>1899.97648255834</v>
+        <v>3986005.631594951</v>
       </c>
       <c r="I76">
-        <v>-197.6528367898009</v>
+        <v>1115663.000031518</v>
       </c>
       <c r="J76">
-        <v>955.2288670197599</v>
+        <v>4842203.584704481</v>
       </c>
       <c r="K76">
-        <v>368.1878436231597</v>
+        <v>3987567.131162579</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3114,31 +3108,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>24.01116708034816</v>
+        <v>1116424.474307306</v>
       </c>
       <c r="G77">
-        <v>125.2308168824777</v>
+        <v>4841370.667492417</v>
       </c>
       <c r="H77">
-        <v>1923.939577156461</v>
+        <v>3986026.243319641</v>
       </c>
       <c r="I77">
-        <v>-183.6803865345227</v>
+        <v>1115712.357477877</v>
       </c>
       <c r="J77">
-        <v>907.7254317583566</v>
+        <v>4842154.933096216</v>
       </c>
       <c r="K77">
-        <v>366.5387516228532</v>
+        <v>3987552.805285689</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3149,31 +3143,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>23.25024235141299</v>
+        <v>1116422.461806076</v>
       </c>
       <c r="G78">
-        <v>139.2323212079857</v>
+        <v>4841387.18030621</v>
       </c>
       <c r="H78">
-        <v>1946.361584991611</v>
+        <v>3986045.529486986</v>
       </c>
       <c r="I78">
-        <v>-169.3638775461267</v>
+        <v>1115762.930305945</v>
       </c>
       <c r="J78">
-        <v>860.2219964969536</v>
+        <v>4842106.281487952</v>
       </c>
       <c r="K78">
-        <v>363.1458553990421</v>
+        <v>3987523.330754499</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3184,31 +3178,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>22.5572783047165</v>
+        <v>1116420.629047929</v>
       </c>
       <c r="G79">
-        <v>153.2338255334938</v>
+        <v>4841403.693120005</v>
       </c>
       <c r="H79">
-        <v>1967.428802606891</v>
+        <v>3986063.650338936</v>
       </c>
       <c r="I79">
-        <v>-154.6948376948382</v>
+        <v>1115814.748443377</v>
       </c>
       <c r="J79">
-        <v>812.7185612355504</v>
+        <v>4842057.629879688</v>
       </c>
       <c r="K79">
-        <v>358.0091549517261</v>
+        <v>3987478.707569007</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3219,31 +3213,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>21.92273591287837</v>
+        <v>1116418.950803951</v>
       </c>
       <c r="G80">
-        <v>167.2353298590018</v>
+        <v>4841420.205933797</v>
       </c>
       <c r="H80">
-        <v>1987.295662298869</v>
+        <v>3986080.738709587</v>
       </c>
       <c r="I80">
-        <v>-139.664586232481</v>
+        <v>1115867.842554772</v>
       </c>
       <c r="J80">
-        <v>765.2151259741471</v>
+        <v>4842008.978271423</v>
       </c>
       <c r="K80">
-        <v>351.1286502809055</v>
+        <v>3987418.935729214</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3254,31 +3248,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>21.33884948814879</v>
+        <v>1116417.406535374</v>
       </c>
       <c r="G81">
-        <v>181.2368341845099</v>
+        <v>4841436.718747592</v>
       </c>
       <c r="H81">
-        <v>2006.09160858878</v>
+        <v>3986096.905939936</v>
       </c>
       <c r="I81">
-        <v>-124.2642286554411</v>
+        <v>1115922.244059815</v>
       </c>
       <c r="J81">
-        <v>717.711690712744</v>
+        <v>4841960.326663159</v>
       </c>
       <c r="K81">
-        <v>342.5043413865801</v>
+        <v>3987344.015235119</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3289,31 +3283,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>20.79922450667976</v>
+        <v>1116415.979329899</v>
       </c>
       <c r="G82">
-        <v>195.2383385100179</v>
+        <v>4841453.231561386</v>
       </c>
       <c r="H82">
-        <v>2023.926214293546</v>
+        <v>3986112.24627844</v>
       </c>
       <c r="I82">
-        <v>-108.4846514411356</v>
+        <v>1115977.98515187</v>
       </c>
       <c r="J82">
-        <v>670.2082554513408</v>
+        <v>4841911.675054895</v>
       </c>
       <c r="K82">
-        <v>332.13622826875</v>
+        <v>3987253.946086722</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3324,31 +3318,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>20.29854148747675</v>
+        <v>1116414.655118511</v>
       </c>
       <c r="G83">
-        <v>209.239842835526</v>
+        <v>4841469.74437518</v>
       </c>
       <c r="H83">
-        <v>2040.893050759013</v>
+        <v>3986126.840209982</v>
       </c>
       <c r="I83">
-        <v>-92.31651665487274</v>
+        <v>1116035.098817037</v>
       </c>
       <c r="J83">
-        <v>622.7048201899375</v>
+        <v>4841863.023446631</v>
       </c>
       <c r="K83">
-        <v>320.024310927415</v>
+        <v>3987148.728284024</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3359,31 +3353,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>19.83233440709286</v>
+        <v>1116413.422089425</v>
       </c>
       <c r="G84">
-        <v>223.241347161034</v>
+        <v>4841486.257188973</v>
       </c>
       <c r="H84">
-        <v>2057.072659465832</v>
+        <v>3986140.757011875</v>
       </c>
       <c r="I84">
-        <v>-75.75025642390945</v>
+        <v>1116093.618853665</v>
       </c>
       <c r="J84">
-        <v>575.2013849285345</v>
+        <v>4841814.371838366</v>
       </c>
       <c r="K84">
-        <v>306.1685893625755</v>
+        <v>3987028.361827025</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3394,31 +3388,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>19.39682246064285</v>
+        <v>1116412.270243132</v>
       </c>
       <c r="G85">
-        <v>237.2428514865421</v>
+        <v>4841502.770002767</v>
       </c>
       <c r="H85">
-        <v>2072.534864317972</v>
+        <v>3986154.056742768</v>
       </c>
       <c r="I85">
-        <v>-58.77606727543865</v>
+        <v>1116153.579892357</v>
       </c>
       <c r="J85">
-        <v>527.6979496671313</v>
+        <v>4841765.720230102</v>
       </c>
       <c r="K85">
-        <v>290.5690635742311</v>
+        <v>3986892.846715723</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3429,31 +3423,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>18.9887806353635</v>
+        <v>1116411.191050087</v>
       </c>
       <c r="G86">
-        <v>251.2443558120501</v>
+        <v>4841519.282816561</v>
       </c>
       <c r="H86">
-        <v>2087.340592721619</v>
+        <v>3986166.791809036</v>
       </c>
       <c r="I86">
-        <v>-41.38390433515433</v>
+        <v>1116215.017416464</v>
       </c>
       <c r="J86">
-        <v>480.1945144057282</v>
+        <v>4841717.068621838</v>
       </c>
       <c r="K86">
-        <v>273.225733562382</v>
+        <v>3986742.18295012</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3464,31 +3458,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>18.60543894571638</v>
+        <v>1116410.177184205</v>
       </c>
       <c r="G87">
-        <v>265.2458601375582</v>
+        <v>4841535.795630354</v>
       </c>
       <c r="H87">
-        <v>2101.54332558745</v>
+        <v>3986179.008211993</v>
       </c>
       <c r="I87">
-        <v>-23.563475382962</v>
+        <v>1116277.967783081</v>
       </c>
       <c r="J87">
-        <v>432.6910791443249</v>
+        <v>4841668.417013573</v>
       </c>
       <c r="K87">
-        <v>254.1385993270281</v>
+        <v>3986576.370530216</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3499,31 +3493,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>18.24440312250763</v>
+        <v>1116409.222313098</v>
       </c>
       <c r="G88">
-        <v>279.2473644630662</v>
+        <v>4841552.308444148</v>
       </c>
       <c r="H88">
-        <v>2115.190263450361</v>
+        <v>3986190.746550918</v>
       </c>
       <c r="I88">
-        <v>-5.304234762316039</v>
+        <v>1116342.468244562</v>
       </c>
       <c r="J88">
-        <v>385.1876438829217</v>
+        <v>4841619.765405308</v>
       </c>
       <c r="K88">
-        <v>233.3076608681695</v>
+        <v>3986395.40945601</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3534,31 +3528,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>17.90359156106404</v>
+        <v>1116408.320931318</v>
       </c>
       <c r="G89">
-        <v>293.2488687885743</v>
+        <v>4841568.821257942</v>
       </c>
       <c r="H89">
-        <v>2128.323272895598</v>
+        <v>3986202.042837128</v>
       </c>
       <c r="I89">
-        <v>13.40462286042003</v>
+        <v>1116408.556970568</v>
       </c>
       <c r="J89">
-        <v>337.6842086215187</v>
+        <v>4841571.113797044</v>
       </c>
       <c r="K89">
-        <v>210.7329181858062</v>
+        <v>3986199.299727503</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3569,31 +3563,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>17.58118473228358</v>
+        <v>1116407.468226556</v>
       </c>
       <c r="G90">
-        <v>307.2503731140823</v>
+        <v>4841585.334071737</v>
       </c>
       <c r="H90">
-        <v>2140.979661160628</v>
+        <v>3986212.929160237</v>
       </c>
       <c r="I90">
-        <v>32.57416889028254</v>
+        <v>1116476.273070651</v>
       </c>
       <c r="J90">
-        <v>290.1807733601154</v>
+        <v>4841522.46218878</v>
       </c>
       <c r="K90">
-        <v>186.4143712799382</v>
+        <v>3985988.041344693</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3604,31 +3598,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>17.27558424725059</v>
+        <v>1116406.659971378</v>
       </c>
       <c r="G91">
-        <v>321.2518774395904</v>
+        <v>4841601.846885529</v>
       </c>
       <c r="H91">
-        <v>2153.192815038588</v>
+        <v>3986223.434237714</v>
       </c>
       <c r="I91">
-        <v>52.21574735547162</v>
+        <v>1116545.656617401</v>
       </c>
       <c r="J91">
-        <v>242.6773380987124</v>
+        <v>4841473.810580516</v>
       </c>
       <c r="K91">
-        <v>160.3520201505654</v>
+        <v>3985761.634307583</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3639,31 +3633,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>16.98537947206023</v>
+        <v>1116405.892434926</v>
       </c>
       <c r="G92">
-        <v>335.2533817650984</v>
+        <v>4841618.359699324</v>
       </c>
       <c r="H92">
-        <v>2164.992731647018</v>
+        <v>3986233.583871414</v>
       </c>
       <c r="I92">
-        <v>72.34098162044492</v>
+        <v>1116616.748670159</v>
       </c>
       <c r="J92">
-        <v>195.1739028373091</v>
+        <v>4841425.158972251</v>
       </c>
       <c r="K92">
-        <v>132.5458647976878</v>
+        <v>3985520.078616171</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3674,31 +3668,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>16.70932010097707</v>
+        <v>1116405.162310378</v>
       </c>
       <c r="G93">
-        <v>349.2548860906064</v>
+        <v>4841634.872513118</v>
       </c>
       <c r="H93">
-        <v>2176.406462306934</v>
+        <v>3986243.401329385</v>
       </c>
       <c r="I93">
-        <v>92.96178126431735</v>
+        <v>1116689.591299311</v>
       </c>
       <c r="J93">
-        <v>147.6704675759058</v>
+        <v>4841376.507363987</v>
       </c>
       <c r="K93">
-        <v>102.9959052213055</v>
+        <v>3985263.374270457</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3709,31 +3703,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>16.44629347103802</v>
+        <v>1116404.466654952</v>
       </c>
       <c r="G94">
-        <v>363.2563904161145</v>
+        <v>4841651.385326912</v>
       </c>
       <c r="H94">
-        <v>2187.45848606162</v>
+        <v>3986252.90766714</v>
       </c>
       <c r="I94">
-        <v>114.090349128632</v>
+        <v>1116764.227611193</v>
       </c>
       <c r="J94">
-        <v>100.1670323145028</v>
+        <v>4841327.855755723</v>
       </c>
       <c r="K94">
-        <v>71.70214142141855</v>
+        <v>3984991.521270442</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3744,31 +3738,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>16.1953056791629</v>
+        <v>1116403.802839964</v>
       </c>
       <c r="G95">
-        <v>377.2578947416225</v>
+        <v>4841667.898140705</v>
       </c>
       <c r="H95">
-        <v>2198.171025808464</v>
+        <v>3986262.121999583</v>
       </c>
       <c r="I95">
-        <v>135.7391885386799</v>
+        <v>1116840.701773591</v>
       </c>
       <c r="J95">
-        <v>52.66359705309954</v>
+        <v>4841279.204147459</v>
       </c>
       <c r="K95">
-        <v>38.66457339802673</v>
+        <v>3984704.519616125</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3779,31 +3773,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>15.95546577097838</v>
+        <v>1116403.168509008</v>
       </c>
       <c r="G96">
-        <v>391.2593990671306</v>
+        <v>4841684.4109545</v>
       </c>
       <c r="H96">
-        <v>2208.564317309428</v>
+        <v>3986271.061732395</v>
       </c>
       <c r="I96">
-        <v>157.9211107026329</v>
+        <v>1116919.059041883</v>
       </c>
       <c r="J96">
-        <v>5.160161791696288</v>
+        <v>4841230.552539195</v>
       </c>
       <c r="K96">
-        <v>3.883201151130202</v>
+        <v>3984402.369307506</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3814,31 +3808,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>15.72597242792643</v>
+        <v>1116402.561542751</v>
       </c>
       <c r="G97">
-        <v>405.2609033926386</v>
+        <v>4841700.923768293</v>
       </c>
       <c r="H97">
-        <v>2218.656839265179</v>
+        <v>3986279.742759928</v>
       </c>
       <c r="I97">
-        <v>180.6492422928789</v>
+        <v>1116999.345785819</v>
       </c>
       <c r="J97">
-        <v>-42.34327346970675</v>
+        <v>4841181.900930931</v>
       </c>
       <c r="K97">
-        <v>-32.64197531927096</v>
+        <v>3984085.070344586</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3849,31 +3843,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>15.50610269926945</v>
+        <v>1116401.980029123</v>
       </c>
       <c r="G98">
-        <v>419.2624077181467</v>
+        <v>4841717.436582088</v>
       </c>
       <c r="H98">
-        <v>2228.465511025819</v>
+        <v>3986288.179635269</v>
       </c>
       <c r="I98">
-        <v>203.9370332140371</v>
+        <v>1117081.609516962</v>
       </c>
       <c r="J98">
-        <v>-89.84670873111001</v>
+        <v>4841133.249322667</v>
       </c>
       <c r="K98">
-        <v>-70.91095601317697</v>
+        <v>3983752.622727365</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3884,31 +3878,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>15.29520241794357</v>
+        <v>1116401.422237978</v>
       </c>
       <c r="G99">
-        <v>433.2639120436548</v>
+        <v>4841733.94939588</v>
       </c>
       <c r="H99">
-        <v>2238.005863251917</v>
+        <v>3986296.385717031</v>
       </c>
       <c r="I99">
-        <v>227.7982645622542</v>
+        <v>1117165.898916803</v>
       </c>
       <c r="J99">
-        <v>-137.3501439925133</v>
+        <v>4841084.597714402</v>
       </c>
       <c r="K99">
-        <v>-110.9237409305878</v>
+        <v>3983405.026455842</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3919,31 +3913,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>15.09267801080731</v>
+        <v>1116400.886599428</v>
       </c>
       <c r="G100">
-        <v>447.2654163691628</v>
+        <v>4841750.462209675</v>
       </c>
       <c r="H100">
-        <v>2247.292185848779</v>
+        <v>3986304.373296597</v>
       </c>
       <c r="I100">
-        <v>252.2470567804909</v>
+        <v>1117252.263865571</v>
       </c>
       <c r="J100">
-        <v>-184.8535792539165</v>
+        <v>4841035.946106138</v>
       </c>
       <c r="K100">
-        <v>-152.6803300715033</v>
+        <v>3983042.281530017</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3954,31 +3948,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>14.89798946975343</v>
+        <v>1116400.371685254</v>
       </c>
       <c r="G101">
-        <v>461.2669206946708</v>
+        <v>4841766.975023469</v>
       </c>
       <c r="H101">
-        <v>2256.337656711742</v>
+        <v>3986312.153708862</v>
       </c>
       <c r="I101">
-        <v>277.297878014625</v>
+        <v>1117340.755471747</v>
       </c>
       <c r="J101">
-        <v>-232.3570145153193</v>
+        <v>4840987.294497874</v>
       </c>
       <c r="K101">
-        <v>-196.1807234359233</v>
+        <v>3982664.387949891</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3989,31 +3983,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>14.71064429413961</v>
+        <v>1116399.876192885</v>
       </c>
       <c r="G102">
-        <v>475.2684250201789</v>
+        <v>4841783.487837262</v>
       </c>
       <c r="H102">
-        <v>2265.154454193971</v>
+        <v>3986319.73742897</v>
       </c>
       <c r="I102">
-        <v>302.965552675317</v>
+        <v>1117431.426102315</v>
       </c>
       <c r="J102">
-        <v>-279.8604497767226</v>
+        <v>4840938.64288961</v>
       </c>
       <c r="K102">
-        <v>-241.4249210238482</v>
+        <v>3982271.345715464</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4024,31 +4018,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>14.53019224982195</v>
+        <v>1116399.398931538</v>
       </c>
       <c r="G103">
-        <v>489.2699293456869</v>
+        <v>4841800.000651056</v>
       </c>
       <c r="H103">
-        <v>2273.75385570558</v>
+        <v>3986327.134157124</v>
       </c>
       <c r="I103">
-        <v>329.2652702107007</v>
+        <v>1117524.329413745</v>
       </c>
       <c r="J103">
-        <v>-327.3638850381259</v>
+        <v>4840889.991281345</v>
       </c>
       <c r="K103">
-        <v>-288.412922835278</v>
+        <v>3981863.154826734</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4059,31 +4053,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>14.35622081782569</v>
+        <v>1116398.938810179</v>
       </c>
       <c r="G104">
-        <v>503.2714336711949</v>
+        <v>4841816.51346485</v>
       </c>
       <c r="H104">
-        <v>2282.146324446987</v>
+        <v>3986334.352893188</v>
       </c>
       <c r="I104">
-        <v>356.2125940950968</v>
+        <v>1117619.52038375</v>
       </c>
       <c r="J104">
-        <v>-374.8673202995291</v>
+        <v>4840841.33967308</v>
       </c>
       <c r="K104">
-        <v>-337.1447288702125</v>
+        <v>3981439.815283703</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4094,31 +4088,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>14.18835122793038</v>
+        <v>1116398.494827031</v>
       </c>
       <c r="G105">
-        <v>517.272937996703</v>
+        <v>4841833.026278644</v>
       </c>
       <c r="H105">
-        <v>2290.341585949875</v>
+        <v>3986341.402002524</v>
       </c>
       <c r="I105">
-        <v>383.823471039063</v>
+        <v>1117717.055343817</v>
       </c>
       <c r="J105">
-        <v>-422.3707555609324</v>
+        <v>4840792.688064816</v>
       </c>
       <c r="K105">
-        <v>-387.6203391286517</v>
+        <v>3981001.32708637</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4129,31 +4123,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>14.02623499037253</v>
+        <v>1116398.066060407</v>
       </c>
       <c r="G106">
-        <v>531.274442322211</v>
+        <v>4841849.539092437</v>
       </c>
       <c r="H106">
-        <v>2298.3486958301</v>
+        <v>3986348.289274272</v>
       </c>
       <c r="I106">
-        <v>412.1142404262328</v>
+        <v>1117816.992012545</v>
       </c>
       <c r="J106">
-        <v>-469.8741908223352</v>
+        <v>4840744.036456552</v>
       </c>
       <c r="K106">
-        <v>-439.8397536105953</v>
+        <v>3980547.690234737</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4164,31 +4158,31 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>13.86955085339793</v>
+        <v>1116397.651660655</v>
       </c>
       <c r="G107">
-        <v>545.2759466477191</v>
+        <v>4841866.051906232</v>
       </c>
       <c r="H107">
-        <v>2306.176099936246</v>
+        <v>3986355.021973082</v>
       </c>
       <c r="I107">
-        <v>441.1016439825314</v>
+        <v>1117919.389529801</v>
       </c>
       <c r="J107">
-        <v>-517.3776260837385</v>
+        <v>4840695.384848287</v>
       </c>
       <c r="K107">
-        <v>-493.802972316044</v>
+        <v>3980078.904728801</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4199,31 +4193,31 @@
         <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>209.7446510047355</v>
+        <v>1116578.36265835</v>
       </c>
       <c r="G108">
-        <v>-81.47670735040587</v>
+        <v>4841114.400929403</v>
       </c>
       <c r="H108">
-        <v>469.7177673491205</v>
+        <v>3985227.939129781</v>
       </c>
       <c r="I108">
-        <v>-2592.576273262969</v>
+        <v>1114862.401005823</v>
       </c>
       <c r="J108">
-        <v>2459.250882507748</v>
+        <v>4843220.819961932</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984372.482482887</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4234,31 +4228,31 @@
         <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>209.7446510047355</v>
+        <v>1116578.36265835</v>
       </c>
       <c r="G109">
-        <v>-81.47670735040587</v>
+        <v>4841114.400929403</v>
       </c>
       <c r="H109">
-        <v>469.7177673491205</v>
+        <v>3985227.939129781</v>
       </c>
       <c r="I109">
-        <v>-2541.391914279169</v>
+        <v>1114892.015030008</v>
       </c>
       <c r="J109">
-        <v>2399.427651856222</v>
+        <v>4843172.168398355</v>
       </c>
       <c r="K109">
-        <v>191.6802809433755</v>
+        <v>3984676.278639656</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4269,31 +4263,31 @@
         <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>209.7446510047355</v>
+        <v>1116578.36265835</v>
       </c>
       <c r="G110">
-        <v>-81.47670735040587</v>
+        <v>4841114.400929403</v>
       </c>
       <c r="H110">
-        <v>469.7177673491205</v>
+        <v>3985227.939129781</v>
       </c>
       <c r="I110">
-        <v>-2488.94718754414</v>
+        <v>1114922.358272293</v>
       </c>
       <c r="J110">
-        <v>2339.604421204697</v>
+        <v>4843123.516834777</v>
       </c>
       <c r="K110">
-        <v>373.8025044480491</v>
+        <v>3984964.926127499</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4304,31 +4298,31 @@
         <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>209.7446510047355</v>
+        <v>1116578.36265835</v>
       </c>
       <c r="G111">
-        <v>-81.47670735040587</v>
+        <v>4841114.400929403</v>
       </c>
       <c r="H111">
-        <v>469.7177673491205</v>
+        <v>3985227.939129781</v>
       </c>
       <c r="I111">
-        <v>-2435.211057661525</v>
+        <v>1114953.448689005</v>
       </c>
       <c r="J111">
-        <v>2279.781190553172</v>
+        <v>4843074.865271199</v>
       </c>
       <c r="K111">
-        <v>546.3666705140223</v>
+        <v>3985238.424946412</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4339,31 +4333,31 @@
         <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>209.7446510047355</v>
+        <v>1116578.36265835</v>
       </c>
       <c r="G112">
-        <v>-81.47670735040587</v>
+        <v>4841114.400929403</v>
       </c>
       <c r="H112">
-        <v>469.7177673491205</v>
+        <v>3985227.939129781</v>
       </c>
       <c r="I112">
-        <v>-2380.151725016884</v>
+        <v>1114985.304678625</v>
       </c>
       <c r="J112">
-        <v>2219.957959901647</v>
+        <v>4843026.213707622</v>
       </c>
       <c r="K112">
-        <v>709.3727791412938</v>
+        <v>3985496.775096397</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4374,31 +4368,31 @@
         <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>209.7446510047355</v>
+        <v>1116578.36265835</v>
       </c>
       <c r="G113">
-        <v>-81.47670735040587</v>
+        <v>4841114.400929403</v>
       </c>
       <c r="H113">
-        <v>469.7177673491205</v>
+        <v>3985227.939129781</v>
       </c>
       <c r="I113">
-        <v>-2323.736606959524</v>
+        <v>1115017.945092683</v>
       </c>
       <c r="J113">
-        <v>2160.134729250121</v>
+        <v>4842977.562144045</v>
       </c>
       <c r="K113">
-        <v>862.8208303298651</v>
+        <v>3985739.976577454</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4409,31 +4403,31 @@
         <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>209.7446510047355</v>
+        <v>1116578.36265835</v>
       </c>
       <c r="G114">
-        <v>-81.47670735040587</v>
+        <v>4841114.400929403</v>
       </c>
       <c r="H114">
-        <v>469.7177673491205</v>
+        <v>3985227.939129781</v>
       </c>
       <c r="I114">
-        <v>-2265.93231852096</v>
+        <v>1115051.389246908</v>
       </c>
       <c r="J114">
-        <v>2100.311498598596</v>
+        <v>4842928.910580467</v>
       </c>
       <c r="K114">
-        <v>1006.710824079735</v>
+        <v>3985968.029389583</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4444,31 +4438,31 @@
         <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>209.7446510047355</v>
+        <v>1116578.36265835</v>
       </c>
       <c r="G115">
-        <v>-81.47670735040587</v>
+        <v>4841114.400929403</v>
       </c>
       <c r="H115">
-        <v>469.7177673491205</v>
+        <v>3985227.939129781</v>
       </c>
       <c r="I115">
-        <v>-2206.704652658566</v>
+        <v>1115085.656932663</v>
       </c>
       <c r="J115">
-        <v>2040.48826794707</v>
+        <v>4842880.259016889</v>
       </c>
       <c r="K115">
-        <v>1141.042760390904</v>
+        <v>3986180.933532784</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4479,31 +4473,31 @@
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>209.7446510047355</v>
+        <v>1116578.36265835</v>
       </c>
       <c r="G116">
-        <v>-68.02260954842475</v>
+        <v>4841130.913713951</v>
       </c>
       <c r="H116">
-        <v>469.7177673491205</v>
+        <v>3985227.939129781</v>
       </c>
       <c r="I116">
-        <v>-2146.018560012764</v>
+        <v>1115120.768428655</v>
       </c>
       <c r="J116">
-        <v>1980.665037295546</v>
+        <v>4842831.607453312</v>
       </c>
       <c r="K116">
-        <v>1265.816639263371</v>
+        <v>3986378.689007056</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4514,31 +4508,31 @@
         <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>162.7863172478827</v>
+        <v>1116529.682100736</v>
       </c>
       <c r="G117">
-        <v>-54.56851174644363</v>
+        <v>4841147.426498497</v>
       </c>
       <c r="H117">
-        <v>578.6891286170422</v>
+        <v>3985427.193517096</v>
       </c>
       <c r="I117">
-        <v>-2083.838128165741</v>
+        <v>1115156.744512933</v>
       </c>
       <c r="J117">
-        <v>1920.84180664402</v>
+        <v>4842782.955889734</v>
       </c>
       <c r="K117">
-        <v>1381.032460697138</v>
+        <v>3986561.295812401</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4549,31 +4543,31 @@
         <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>135.2006518500448</v>
+        <v>1116501.084715218</v>
       </c>
       <c r="G118">
-        <v>-41.11441394446252</v>
+        <v>4841163.939283044</v>
       </c>
       <c r="H118">
-        <v>643.5980443952063</v>
+        <v>3985545.879620436</v>
       </c>
       <c r="I118">
-        <v>-2020.126560389434</v>
+        <v>1115193.606475189</v>
       </c>
       <c r="J118">
-        <v>1861.018575992495</v>
+        <v>4842734.304326156</v>
       </c>
       <c r="K118">
-        <v>1486.690224692203</v>
+        <v>3986728.753948818</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4584,31 +4578,31 @@
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>117.7865560641219</v>
+        <v>1116483.031947469</v>
       </c>
       <c r="G119">
-        <v>-27.6603161424814</v>
+        <v>4841180.452067592</v>
       </c>
       <c r="H119">
-        <v>689.9840594759554</v>
+        <v>3985630.696556807</v>
       </c>
       <c r="I119">
-        <v>-1954.846153870201</v>
+        <v>1115231.376129353</v>
       </c>
       <c r="J119">
-        <v>1801.19534534097</v>
+        <v>4842685.652762579</v>
       </c>
       <c r="K119">
-        <v>1582.789931248568</v>
+        <v>3986881.063416306</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4619,31 +4613,31 @@
         <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>105.6420363509841</v>
+        <v>1116470.442020521</v>
       </c>
       <c r="G120">
-        <v>-14.20621834050027</v>
+        <v>4841196.964852138</v>
       </c>
       <c r="H120">
-        <v>726.104824568009</v>
+        <v>3985696.743459717</v>
       </c>
       <c r="I120">
-        <v>-1887.958277397306</v>
+        <v>1115270.075826503</v>
       </c>
       <c r="J120">
-        <v>1741.372114689444</v>
+        <v>4842637.001199001</v>
       </c>
       <c r="K120">
-        <v>1669.331580366232</v>
+        <v>3987018.224214866</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4654,31 +4648,31 @@
         <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>96.58186095811341</v>
+        <v>1116461.049557993</v>
       </c>
       <c r="G121">
-        <v>-0.7521205385191617</v>
+        <v>4841213.477636687</v>
       </c>
       <c r="H121">
-        <v>755.6905329603285</v>
+        <v>3985750.840996266</v>
       </c>
       <c r="I121">
-        <v>-1819.423348501984</v>
+        <v>1115309.728468093</v>
       </c>
       <c r="J121">
-        <v>1681.548884037919</v>
+        <v>4842588.349635423</v>
       </c>
       <c r="K121">
-        <v>1746.315172045194</v>
+        <v>3987140.236344499</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4689,31 +4683,31 @@
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>89.49806901687256</v>
+        <v>1116453.705963914</v>
       </c>
       <c r="G122">
-        <v>12.70197726346196</v>
+        <v>4841229.990421233</v>
       </c>
       <c r="H122">
-        <v>780.7474683165839</v>
+        <v>3985796.657660794</v>
       </c>
       <c r="I122">
-        <v>-1749.200810033593</v>
+        <v>1115350.357519502</v>
       </c>
       <c r="J122">
-        <v>1621.725653386394</v>
+        <v>4842539.698071845</v>
       </c>
       <c r="K122">
-        <v>1813.740706285455</v>
+        <v>3987247.099805203</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4724,31 +4718,31 @@
         <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>83.76676554860478</v>
+        <v>1116447.7644616</v>
       </c>
       <c r="G123">
-        <v>26.15607506544308</v>
+        <v>4841246.50320578</v>
       </c>
       <c r="H123">
-        <v>802.4797961901039</v>
+        <v>3985836.395272814</v>
       </c>
       <c r="I123">
-        <v>-1677.249106158968</v>
+        <v>1115391.987023924</v>
       </c>
       <c r="J123">
-        <v>1561.902422734869</v>
+        <v>4842491.046508268</v>
       </c>
       <c r="K123">
-        <v>1871.608183087015</v>
+        <v>3987338.814596978</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4759,31 +4753,31 @@
         <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>79.00774149211168</v>
+        <v>1116442.830897603</v>
       </c>
       <c r="G124">
-        <v>39.6101728674242</v>
+        <v>4841263.015990328</v>
       </c>
       <c r="H124">
-        <v>821.6672912082028</v>
+        <v>3985871.479652043</v>
       </c>
       <c r="I124">
-        <v>-1603.525657770785</v>
+        <v>1115434.641616593</v>
       </c>
       <c r="J124">
-        <v>1502.079192083343</v>
+        <v>4842442.39494469</v>
       </c>
       <c r="K124">
-        <v>1919.917602449874</v>
+        <v>3987415.380719826</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4794,31 +4788,31 @@
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>74.97482667630332</v>
+        <v>1116438.650073321</v>
       </c>
       <c r="G125">
-        <v>53.06427066940533</v>
+        <v>4841279.528774874</v>
       </c>
       <c r="H125">
-        <v>838.8439603275098</v>
+        <v>3985902.887231445</v>
       </c>
       <c r="I125">
-        <v>-1527.986837290371</v>
+        <v>1115478.346539366</v>
       </c>
       <c r="J125">
-        <v>1442.255961431818</v>
+        <v>4842393.743381113</v>
       </c>
       <c r="K125">
-        <v>1958.668964374033</v>
+        <v>3987476.798173746</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4829,31 +4823,31 @@
         <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>71.50086401513109</v>
+        <v>1116435.048701084</v>
       </c>
       <c r="G126">
-        <v>66.51836847138644</v>
+        <v>4841296.041559421</v>
       </c>
       <c r="H126">
-        <v>854.391573922332</v>
+        <v>3985931.316079034</v>
       </c>
       <c r="I126">
-        <v>-1450.587942850068</v>
+        <v>1115523.127655655</v>
       </c>
       <c r="J126">
-        <v>1382.432730780293</v>
+        <v>4842345.091817535</v>
       </c>
       <c r="K126">
-        <v>1987.86226885949</v>
+        <v>3987523.066958738</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4864,31 +4858,31 @@
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>68.46791510625181</v>
+        <v>1116431.904517032</v>
       </c>
       <c r="G127">
-        <v>79.97246627336754</v>
+        <v>4841312.55434397</v>
       </c>
       <c r="H127">
-        <v>868.5925436812681</v>
+        <v>3985957.282585239</v>
       </c>
       <c r="I127">
-        <v>-1371.28317183985</v>
+        <v>1115569.011465734</v>
       </c>
       <c r="J127">
-        <v>1322.609500128767</v>
+        <v>4842296.440253957</v>
       </c>
       <c r="K127">
-        <v>2007.497515906246</v>
+        <v>3987554.187074801</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4899,31 +4893,31 @@
         <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>65.79010787769026</v>
+        <v>1116429.128499686</v>
       </c>
       <c r="G128">
-        <v>93.42656407534868</v>
+        <v>4841329.067128516</v>
       </c>
       <c r="H128">
-        <v>881.6616654641452</v>
+        <v>3985981.17950479</v>
       </c>
       <c r="I128">
-        <v>-1290.025593802556</v>
+        <v>1115616.025122424</v>
       </c>
       <c r="J128">
-        <v>1262.786269477242</v>
+        <v>4842247.78869038</v>
       </c>
       <c r="K128">
-        <v>2017.574705514301</v>
+        <v>3987570.158521936</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4934,31 +4928,31 @@
         <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>63.40325264220521</v>
+        <v>1116426.654105164</v>
       </c>
       <c r="G129">
-        <v>106.8806618773298</v>
+        <v>4841345.579913063</v>
       </c>
       <c r="H129">
-        <v>893.766118041059</v>
+        <v>3986003.312524456</v>
       </c>
       <c r="I129">
-        <v>-1206.767122661695</v>
+        <v>1115664.196447158</v>
       </c>
       <c r="J129">
-        <v>1202.963038825717</v>
+        <v>4842199.137126802</v>
       </c>
       <c r="K129">
-        <v>2018.093837683654</v>
+        <v>3987570.981300144</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4969,31 +4963,31 @@
         <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>61.25828625946305</v>
+        <v>1116424.430470907</v>
       </c>
       <c r="G130">
-        <v>120.3347596793109</v>
+        <v>4841362.092697611</v>
       </c>
       <c r="H130">
-        <v>905.0385744276634</v>
+        <v>3986023.924237155</v>
       </c>
       <c r="I130">
-        <v>-1121.458488265379</v>
+        <v>1115713.553946447</v>
       </c>
       <c r="J130">
-        <v>1143.139808174191</v>
+        <v>4842150.485563224</v>
       </c>
       <c r="K130">
-        <v>2009.054912414307</v>
+        <v>3987556.655409422</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5004,31 +4998,31 @@
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>59.3169835018322</v>
+        <v>1116422.417969756</v>
       </c>
       <c r="G131">
-        <v>133.788857481292</v>
+        <v>4841378.605482157</v>
       </c>
       <c r="H131">
-        <v>915.5860896656015</v>
+        <v>3986043.210393278</v>
       </c>
       <c r="I131">
-        <v>-1034.049207229558</v>
+        <v>1115764.126828748</v>
       </c>
       <c r="J131">
-        <v>1083.316577522666</v>
+        <v>4842101.833999647</v>
       </c>
       <c r="K131">
-        <v>1990.457929706259</v>
+        <v>3987527.180849773</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5039,31 +5033,31 @@
         <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>57.54906485806113</v>
+        <v>1116420.585211681</v>
       </c>
       <c r="G132">
-        <v>147.2429552832732</v>
+        <v>4841395.118266704</v>
       </c>
       <c r="H132">
-        <v>925.4962993333452</v>
+        <v>3986061.331234686</v>
       </c>
       <c r="I132">
-        <v>-944.4875530632944</v>
+        <v>1115815.945021749</v>
       </c>
       <c r="J132">
-        <v>1023.493346871141</v>
+        <v>4842053.182436069</v>
       </c>
       <c r="K132">
-        <v>1962.302889559509</v>
+        <v>3987482.557621196</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5074,31 +5068,31 @@
         <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>55.93019396549222</v>
+        <v>1116418.906967768</v>
       </c>
       <c r="G133">
-        <v>160.6970530852543</v>
+        <v>4841411.631051252</v>
       </c>
       <c r="H133">
-        <v>934.8418497796628</v>
+        <v>3986078.419595395</v>
       </c>
       <c r="I133">
-        <v>-852.7205255583976</v>
+        <v>1115869.039190081</v>
       </c>
       <c r="J133">
-        <v>963.6701162196155</v>
+        <v>4842004.530872491</v>
       </c>
       <c r="K133">
-        <v>1924.589791974059</v>
+        <v>3987422.785723691</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5109,31 +5103,31 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>54.44055867915192</v>
+        <v>1116417.362699253</v>
       </c>
       <c r="G134">
-        <v>174.1511508872354</v>
+        <v>4841428.143835799</v>
       </c>
       <c r="H134">
-        <v>943.6836328778523</v>
+        <v>3986094.586816337</v>
       </c>
       <c r="I134">
-        <v>-758.6938194253105</v>
+        <v>1115923.440753463</v>
       </c>
       <c r="J134">
-        <v>903.8468855680903</v>
+        <v>4841955.879308914</v>
       </c>
       <c r="K134">
-        <v>1877.318636949908</v>
+        <v>3987347.865157257</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5144,31 +5138,31 @@
         <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>53.06384502433576</v>
+        <v>1116415.935493834</v>
       </c>
       <c r="G135">
-        <v>187.6052486892165</v>
+        <v>4841444.656620347</v>
       </c>
       <c r="H135">
-        <v>952.0731926718128</v>
+        <v>3986109.927145917</v>
       </c>
       <c r="I135">
-        <v>-662.3517921566784</v>
+        <v>1115979.181905294</v>
       </c>
       <c r="J135">
-        <v>844.023654916565</v>
+        <v>4841907.227745336</v>
       </c>
       <c r="K135">
-        <v>1820.489424487055</v>
+        <v>3987257.795921896</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5179,31 +5173,31 @@
         <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>51.78648172029659</v>
+        <v>1116414.611282497</v>
       </c>
       <c r="G136">
-        <v>201.0593464911976</v>
+        <v>4841461.169404893</v>
       </c>
       <c r="H136">
-        <v>960.0545459687536</v>
+        <v>3986124.521068968</v>
       </c>
       <c r="I136">
-        <v>-563.6374310995965</v>
+        <v>1116036.295631709</v>
       </c>
       <c r="J136">
-        <v>784.2004242650396</v>
+        <v>4841858.576181759</v>
       </c>
       <c r="K136">
-        <v>1754.102154585501</v>
+        <v>3987152.578017606</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5214,31 +5208,31 @@
         <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>50.59707486261333</v>
+        <v>1116413.37825346</v>
       </c>
       <c r="G137">
-        <v>214.5134442931788</v>
+        <v>4841477.68218944</v>
       </c>
       <c r="H137">
-        <v>967.6655802094754</v>
+        <v>3986138.437862764</v>
       </c>
       <c r="I137">
-        <v>-462.492319717031</v>
+        <v>1116094.815731092</v>
       </c>
       <c r="J137">
-        <v>724.3771936135145</v>
+        <v>4841809.924618181</v>
       </c>
       <c r="K137">
-        <v>1678.156827245247</v>
+        <v>3987032.211444389</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5249,31 +5243,31 @@
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>49.48597870490571</v>
+        <v>1116412.226407212</v>
       </c>
       <c r="G138">
-        <v>227.9675420951599</v>
+        <v>4841494.194973988</v>
       </c>
       <c r="H138">
-        <v>974.9391411897902</v>
+        <v>3986151.737585919</v>
       </c>
       <c r="I138">
-        <v>-358.8566030184663</v>
+        <v>1116154.776834086</v>
       </c>
       <c r="J138">
-        <v>664.5539629619891</v>
+        <v>4841761.273054603</v>
       </c>
       <c r="K138">
-        <v>1592.653442466291</v>
+        <v>3986896.696202243</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5284,31 +5278,31 @@
         <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>48.44496546072841</v>
+        <v>1116411.14721421</v>
       </c>
       <c r="G139">
-        <v>241.421639897141</v>
+        <v>4841510.707758535</v>
       </c>
       <c r="H139">
-        <v>981.9038897125085</v>
+        <v>3986164.472644778</v>
       </c>
       <c r="I139">
-        <v>-252.6689521393099</v>
+        <v>1116216.214424077</v>
       </c>
       <c r="J139">
-        <v>604.730732310464</v>
+        <v>4841712.621491026</v>
       </c>
       <c r="K139">
-        <v>1497.592000248634</v>
+        <v>3986746.032291168</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5319,31 +5313,31 @@
         <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>47.46696822798212</v>
+        <v>1116410.133348367</v>
       </c>
       <c r="G140">
-        <v>254.8757376991221</v>
+        <v>4841527.220543082</v>
       </c>
       <c r="H140">
-        <v>988.5849836816172</v>
+        <v>3986176.689040627</v>
       </c>
       <c r="I140">
-        <v>-143.8665280481015</v>
+        <v>1116279.1648582</v>
       </c>
       <c r="J140">
-        <v>544.9075016589386</v>
+        <v>4841663.969927448</v>
       </c>
       <c r="K140">
-        <v>1392.972500592276</v>
+        <v>3986580.219711166</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5354,31 +5348,31 @@
         <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>46.54587864770331</v>
+        <v>1116409.178477297</v>
       </c>
       <c r="G141">
-        <v>268.3298355011032</v>
+        <v>4841543.733327629</v>
       </c>
       <c r="H141">
-        <v>995.0046266555437</v>
+        <v>3986188.427372723</v>
       </c>
       <c r="I141">
-        <v>-32.3849443600425</v>
+        <v>1116343.665388851</v>
       </c>
       <c r="J141">
-        <v>485.0842710074132</v>
+        <v>4841615.31836387</v>
       </c>
       <c r="K141">
-        <v>1278.794943497217</v>
+        <v>3986399.258462236</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5389,31 +5383,31 @@
         <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>45.67638604363353</v>
+        <v>1116408.277095553</v>
       </c>
       <c r="G142">
-        <v>281.7839333030844</v>
+        <v>4841560.246112176</v>
       </c>
       <c r="H142">
-        <v>1001.182513054569</v>
+        <v>3986199.72365236</v>
       </c>
       <c r="I142">
-        <v>81.84177076515894</v>
+        <v>1116409.754185729</v>
       </c>
       <c r="J142">
-        <v>425.2610403558881</v>
+        <v>4841566.666800292</v>
       </c>
       <c r="K142">
-        <v>1155.059328963457</v>
+        <v>3986203.148544378</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5424,31 +5418,31 @@
         <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>44.85384835759146</v>
+        <v>1116407.424390825</v>
       </c>
       <c r="G143">
-        <v>295.2380311050655</v>
+        <v>4841576.758896723</v>
       </c>
       <c r="H143">
-        <v>1007.136192540552</v>
+        <v>3986210.609969136</v>
       </c>
       <c r="I143">
-        <v>198.8812136636673</v>
+        <v>1116477.470358429</v>
       </c>
       <c r="J143">
-        <v>365.4378097043627</v>
+        <v>4841518.015236715</v>
       </c>
       <c r="K143">
-        <v>1021.765656990996</v>
+        <v>3985991.889957591</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5459,31 +5453,31 @@
         <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>44.07418771341964</v>
+        <v>1116406.616135678</v>
       </c>
       <c r="G144">
-        <v>308.6921289070466</v>
+        <v>4841593.271681271</v>
       </c>
       <c r="H144">
-        <v>1012.881370562884</v>
+        <v>3986221.115040501</v>
       </c>
       <c r="I144">
-        <v>318.8026451692394</v>
+        <v>1116546.853979585</v>
       </c>
       <c r="J144">
-        <v>305.6145790528376</v>
+        <v>4841469.363673138</v>
       </c>
       <c r="K144">
-        <v>878.9139275798346</v>
+        <v>3985765.482701876</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5494,31 +5488,31 @@
         <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>43.3338052433387</v>
+        <v>1116405.848599256</v>
       </c>
       <c r="G145">
-        <v>322.1462267090278</v>
+        <v>4841609.784465818</v>
       </c>
       <c r="H145">
-        <v>1018.432158036908</v>
+        <v>3986231.264668296</v>
       </c>
       <c r="I145">
-        <v>441.6770315999409</v>
+        <v>1116617.94610858</v>
       </c>
       <c r="J145">
-        <v>245.7913484013122</v>
+        <v>4841420.712109559</v>
       </c>
       <c r="K145">
-        <v>726.504140729971</v>
+        <v>3985523.926777233</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5529,31 +5523,31 @@
         <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>42.62951111545102</v>
+        <v>1116405.118474737</v>
       </c>
       <c r="G146">
-        <v>335.6003245110088</v>
+        <v>4841626.297250365</v>
       </c>
       <c r="H146">
-        <v>1023.801280148642</v>
+        <v>3986241.082120555</v>
       </c>
       <c r="I146">
-        <v>567.5770867541369</v>
+        <v>1116690.788815848</v>
       </c>
       <c r="J146">
-        <v>185.9681177497868</v>
+        <v>4841372.060545982</v>
       </c>
       <c r="K146">
-        <v>564.5362964414066</v>
+        <v>3985267.222183663</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5564,31 +5558,31 @@
         <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>41.95846665781382</v>
+        <v>1116404.422819338</v>
       </c>
       <c r="G147">
-        <v>349.05442231299</v>
+        <v>4841642.810034912</v>
       </c>
       <c r="H147">
-        <v>1029.000252061401</v>
+        <v>3986250.588452779</v>
       </c>
       <c r="I147">
-        <v>696.577314940576</v>
+        <v>1116765.425207768</v>
       </c>
       <c r="J147">
-        <v>126.1448870982617</v>
+        <v>4841323.408982405</v>
       </c>
       <c r="K147">
-        <v>393.0103947141417</v>
+        <v>3984995.368921164</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5599,31 +5593,31 @@
         <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>41.31813618362791</v>
+        <v>1116403.759004376</v>
       </c>
       <c r="G148">
-        <v>362.508520114971</v>
+        <v>4841659.322819459</v>
       </c>
       <c r="H148">
-        <v>1034.039527627068</v>
+        <v>3986259.802779861</v>
       </c>
       <c r="I148">
-        <v>828.7540550680752</v>
+        <v>1116841.899452175</v>
       </c>
       <c r="J148">
-        <v>66.32165644673633</v>
+        <v>4841274.757418827</v>
       </c>
       <c r="K148">
-        <v>211.926435548175</v>
+        <v>3984708.366989736</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5634,31 +5628,31 @@
         <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>40.70624665310877</v>
+        <v>1116403.124673446</v>
       </c>
       <c r="G149">
-        <v>375.9626179169522</v>
+        <v>4841675.835604006</v>
       </c>
       <c r="H149">
-        <v>1038.928625931052</v>
+        <v>3986268.742507472</v>
       </c>
       <c r="I149">
-        <v>964.1855258208418</v>
+        <v>1116920.256804496</v>
       </c>
       <c r="J149">
-        <v>6.498425795210933</v>
+        <v>4841226.105855249</v>
       </c>
       <c r="K149">
-        <v>21.28441894350744</v>
+        <v>3984406.216389381</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5669,31 +5663,31 @@
         <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>40.12075370908509</v>
+        <v>1116402.517707212</v>
       </c>
       <c r="G150">
-        <v>389.4167157189333</v>
+        <v>4841692.348388554</v>
       </c>
       <c r="H150">
-        <v>1043.676239521242</v>
+        <v>3986277.423529954</v>
       </c>
       <c r="I150">
-        <v>1102.951871946226</v>
+        <v>1117000.54363453</v>
       </c>
       <c r="J150">
-        <v>-53.32480485631417</v>
+        <v>4841177.454291672</v>
       </c>
       <c r="K150">
-        <v>-178.9156550998606</v>
+        <v>3984088.917120098</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5704,31 +5698,31 @@
         <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>39.5598129296224</v>
+        <v>1116401.936193607</v>
       </c>
       <c r="G151">
-        <v>402.8708135209144</v>
+        <v>4841708.861173101</v>
       </c>
       <c r="H151">
-        <v>1048.290327412921</v>
+        <v>3986285.860400387</v>
       </c>
       <c r="I151">
-        <v>1245.13521168225</v>
+        <v>1117082.807453891</v>
       </c>
       <c r="J151">
-        <v>-113.1480355078396</v>
+        <v>4841128.802728094</v>
       </c>
       <c r="K151">
-        <v>-388.6737865819304</v>
+        <v>3983756.469181887</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5739,31 +5733,31 @@
         <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D152" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>39.02175537655009</v>
+        <v>1116401.378402484</v>
       </c>
       <c r="G152">
-        <v>416.3249113228956</v>
+        <v>4841725.373957648</v>
       </c>
       <c r="H152">
-        <v>1052.778195369255</v>
+        <v>3986294.066477374</v>
       </c>
       <c r="I152">
-        <v>1390.819685353001</v>
+        <v>1117167.096944123</v>
       </c>
       <c r="J152">
-        <v>-172.9712661593649</v>
+        <v>4841080.151164516</v>
       </c>
       <c r="K152">
-        <v>-607.9899755027017</v>
+        <v>3983408.872574747</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5774,31 +5768,31 @@
         <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>38.50506670142796</v>
+        <v>1116400.842763955</v>
       </c>
       <c r="G153">
-        <v>429.7790091248767</v>
+        <v>4841741.886742195</v>
       </c>
       <c r="H153">
-        <v>1057.146565490921</v>
+        <v>3986302.054052293</v>
       </c>
       <c r="I153">
-        <v>1540.091505160636</v>
+        <v>1117253.461985507</v>
       </c>
       <c r="J153">
-        <v>-232.7944968108903</v>
+        <v>4841031.499600939</v>
       </c>
       <c r="K153">
-        <v>-836.8642218621736</v>
+        <v>3983046.127298679</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5809,31 +5803,31 @@
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>38.00836921315483</v>
+        <v>1116400.327849801</v>
       </c>
       <c r="G154">
-        <v>443.2331069268578</v>
+        <v>4841758.399526742</v>
       </c>
       <c r="H154">
-        <v>1061.401636779044</v>
+        <v>3986309.834460032</v>
       </c>
       <c r="I154">
-        <v>1693.039006203477</v>
+        <v>1117341.95368658</v>
       </c>
       <c r="J154">
-        <v>-292.6177274624152</v>
+        <v>4840982.848037361</v>
       </c>
       <c r="K154">
-        <v>-1075.296525660345</v>
+        <v>3982668.233353683</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5844,31 +5838,31 @@
         <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>37.53040642364621</v>
+        <v>1116399.832357452</v>
       </c>
       <c r="G155">
-        <v>456.6872047288389</v>
+        <v>4841774.912311289</v>
       </c>
       <c r="H155">
-        <v>1065.549138041078</v>
+        <v>3986317.418175728</v>
       </c>
       <c r="I155">
-        <v>1849.752698750379</v>
+        <v>1117432.624414381</v>
       </c>
       <c r="J155">
-        <v>-352.4409581139406</v>
+        <v>4840934.196473784</v>
       </c>
       <c r="K155">
-        <v>-1323.286886897219</v>
+        <v>3982275.19073976</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5879,31 +5873,31 @@
         <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>37.07002967686308</v>
+        <v>1116399.355096124</v>
       </c>
       <c r="G156">
-        <v>470.14130253082</v>
+        <v>4841791.425095837</v>
       </c>
       <c r="H156">
-        <v>1069.594374272717</v>
+        <v>3986324.814899578</v>
       </c>
       <c r="I156">
-        <v>2010.325321802294</v>
+        <v>1117525.527825439</v>
       </c>
       <c r="J156">
-        <v>-412.264188765466</v>
+        <v>4840885.544910206</v>
       </c>
       <c r="K156">
-        <v>-1580.835305572794</v>
+        <v>3981866.999456907</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5914,31 +5908,31 @@
         <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>36.62618653727168</v>
+        <v>1116398.894974782</v>
       </c>
       <c r="G157">
-        <v>483.5954003328011</v>
+        <v>4841807.937880384</v>
       </c>
       <c r="H157">
-        <v>1073.542267458052</v>
+        <v>3986332.033631442</v>
       </c>
       <c r="I157">
-        <v>2174.851897972757</v>
+        <v>1117620.718897525</v>
       </c>
       <c r="J157">
-        <v>-472.0874194169913</v>
+        <v>4840836.893346628</v>
       </c>
       <c r="K157">
-        <v>-1847.941781687071</v>
+        <v>3981443.659505127</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5949,31 +5943,31 @@
         <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>36.19791067056121</v>
+        <v>1116398.450991652</v>
       </c>
       <c r="G158">
-        <v>497.0494981347823</v>
+        <v>4841824.450664931</v>
       </c>
       <c r="H158">
-        <v>1077.39739257513</v>
+        <v>3986339.082736677</v>
       </c>
       <c r="I158">
-        <v>2343.429789719746</v>
+        <v>1117718.253962186</v>
       </c>
       <c r="J158">
-        <v>-531.9106500685167</v>
+        <v>4840788.241783051</v>
       </c>
       <c r="K158">
-        <v>-2124.606315240048</v>
+        <v>3981005.170884418</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5984,31 +5978,31 @@
         <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>35.78431299517985</v>
+        <v>1116398.022225044</v>
       </c>
       <c r="G159">
-        <v>510.5035959367634</v>
+        <v>4841840.963449478</v>
       </c>
       <c r="H159">
-        <v>1081.164009467535</v>
+        <v>3986345.970004418</v>
       </c>
       <c r="I159">
-        <v>2516.158756962183</v>
+        <v>1117818.190738085</v>
       </c>
       <c r="J159">
-        <v>-591.7338807200416</v>
+        <v>4840739.590219473</v>
       </c>
       <c r="K159">
-        <v>-2410.828906231724</v>
+        <v>3980551.533594782</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6019,31 +6013,31 @@
         <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>35.3845739203157</v>
+        <v>1116397.607825309</v>
       </c>
       <c r="G160">
-        <v>523.9576937387445</v>
+        <v>4841857.476234025</v>
       </c>
       <c r="H160">
-        <v>1084.846091138814</v>
+        <v>3986352.702699311</v>
       </c>
       <c r="I160">
-        <v>2693.141016115233</v>
+        <v>1117920.588365149</v>
       </c>
       <c r="J160">
-        <v>-651.557111371567</v>
+        <v>4840690.938655894</v>
       </c>
       <c r="K160">
-        <v>-2706.609554662104</v>
+        <v>3980082.747636218</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6051,34 +6045,34 @@
         <v>79</v>
       </c>
       <c r="B161" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D161" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E161">
         <v>152.142</v>
       </c>
       <c r="F161">
-        <v>102.7533184458576</v>
+        <v>1116579.489305662</v>
       </c>
       <c r="G161">
-        <v>-94.98744233949108</v>
+        <v>4841125.390380108</v>
       </c>
       <c r="H161">
-        <v>932.8759435982073</v>
+        <v>3985226.852237352</v>
       </c>
       <c r="I161">
-        <v>-2272.598789589308</v>
+        <v>1114862.415263123</v>
       </c>
       <c r="J161">
-        <v>585.2162790988282</v>
+        <v>4843230.423107588</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>3984357.852956643</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6086,34 +6080,34 @@
         <v>79</v>
       </c>
       <c r="B162" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D162" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E162">
         <v>153.142</v>
       </c>
       <c r="F162">
-        <v>102.7533184458576</v>
+        <v>1116579.489305662</v>
       </c>
       <c r="G162">
-        <v>-94.98744233949108</v>
+        <v>4841125.390380108</v>
       </c>
       <c r="H162">
-        <v>932.8759435982073</v>
+        <v>3985226.852237352</v>
       </c>
       <c r="I162">
-        <v>-2227.731638149212</v>
+        <v>1114892.029287686</v>
       </c>
       <c r="J162">
-        <v>570.9804283791747</v>
+        <v>4843181.771447544</v>
       </c>
       <c r="K162">
-        <v>423.2049024222216</v>
+        <v>3984661.647997957</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6121,34 +6115,34 @@
         <v>79</v>
       </c>
       <c r="B163" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D163" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E163">
         <v>154.142</v>
       </c>
       <c r="F163">
-        <v>102.7533184458576</v>
+        <v>1116579.489305662</v>
       </c>
       <c r="G163">
-        <v>-94.98744233949108</v>
+        <v>4841125.390380108</v>
       </c>
       <c r="H163">
-        <v>932.8759435982073</v>
+        <v>3985226.852237352</v>
       </c>
       <c r="I163">
-        <v>-2181.759674381927</v>
+        <v>1114922.37253036</v>
       </c>
       <c r="J163">
-        <v>556.7445776595212</v>
+        <v>4843133.119787498</v>
       </c>
       <c r="K163">
-        <v>825.3068685080408</v>
+        <v>3984950.294425963</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6156,34 +6150,34 @@
         <v>79</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D164" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E164">
         <v>155.142</v>
       </c>
       <c r="F164">
-        <v>102.7533184458576</v>
+        <v>1116579.489305662</v>
       </c>
       <c r="G164">
-        <v>-94.98744233949108</v>
+        <v>4841125.390380108</v>
       </c>
       <c r="H164">
-        <v>932.8759435982073</v>
+        <v>3985226.852237352</v>
       </c>
       <c r="I164">
-        <v>-2134.655693300303</v>
+        <v>1114953.462947469</v>
       </c>
       <c r="J164">
-        <v>542.5087269398675</v>
+        <v>4843084.468127455</v>
       </c>
       <c r="K164">
-        <v>1206.30589825746</v>
+        <v>3985223.792240664</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6191,34 +6185,34 @@
         <v>79</v>
       </c>
       <c r="B165" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D165" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E165">
         <v>156.142</v>
       </c>
       <c r="F165">
-        <v>102.7533184458576</v>
+        <v>1116579.489305662</v>
       </c>
       <c r="G165">
-        <v>-94.98744233949108</v>
+        <v>4841125.390380108</v>
       </c>
       <c r="H165">
-        <v>932.8759435982073</v>
+        <v>3985226.852237352</v>
       </c>
       <c r="I165">
-        <v>-2086.391820019413</v>
+        <v>1114985.318937497</v>
       </c>
       <c r="J165">
-        <v>528.272876220214</v>
+        <v>4843035.816467411</v>
       </c>
       <c r="K165">
-        <v>1566.201991670478</v>
+        <v>3985482.141442058</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6226,34 +6220,34 @@
         <v>79</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D166" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E166">
         <v>157.142</v>
       </c>
       <c r="F166">
-        <v>102.7533184458576</v>
+        <v>1116579.489305662</v>
       </c>
       <c r="G166">
-        <v>-94.98744233949108</v>
+        <v>4841125.390380108</v>
       </c>
       <c r="H166">
-        <v>932.8759435982073</v>
+        <v>3985226.852237352</v>
       </c>
       <c r="I166">
-        <v>-2036.939493260929</v>
+        <v>1115017.959351972</v>
       </c>
       <c r="J166">
-        <v>514.0370255005604</v>
+        <v>4842987.164807367</v>
       </c>
       <c r="K166">
-        <v>1904.995148747096</v>
+        <v>3985725.342030146</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6261,34 +6255,34 @@
         <v>79</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D167" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E167">
         <v>158.142</v>
       </c>
       <c r="F167">
-        <v>102.7533184458576</v>
+        <v>1116579.489305662</v>
       </c>
       <c r="G167">
-        <v>-94.98744233949108</v>
+        <v>4841125.390380108</v>
       </c>
       <c r="H167">
-        <v>932.8759435982073</v>
+        <v>3985226.852237352</v>
       </c>
       <c r="I167">
-        <v>-1986.269448451324</v>
+        <v>1115051.403506625</v>
       </c>
       <c r="J167">
-        <v>499.8011747809068</v>
+        <v>4842938.513147322</v>
       </c>
       <c r="K167">
-        <v>2222.685369487313</v>
+        <v>3985953.394004927</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6296,34 +6290,34 @@
         <v>79</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D168" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E168">
         <v>159.142</v>
       </c>
       <c r="F168">
-        <v>102.7533184458576</v>
+        <v>1116579.489305662</v>
       </c>
       <c r="G168">
-        <v>-94.98744233949108</v>
+        <v>4841125.390380108</v>
       </c>
       <c r="H168">
-        <v>932.8759435982073</v>
+        <v>3985226.852237352</v>
       </c>
       <c r="I168">
-        <v>-1934.351700403869</v>
+        <v>1115085.671192819</v>
       </c>
       <c r="J168">
-        <v>485.5653240612532</v>
+        <v>4842889.861487279</v>
       </c>
       <c r="K168">
-        <v>2519.27265389113</v>
+        <v>3986166.297366403</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6331,34 +6325,34 @@
         <v>79</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D169" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E169">
         <v>160.142</v>
       </c>
       <c r="F169">
-        <v>102.7533184458576</v>
+        <v>1116579.489305662</v>
       </c>
       <c r="G169">
-        <v>-79.30234188864193</v>
+        <v>4841141.90320214</v>
       </c>
       <c r="H169">
-        <v>932.8759435982073</v>
+        <v>3985226.852237352</v>
       </c>
       <c r="I169">
-        <v>-1881.155525574199</v>
+        <v>1115120.782689259</v>
       </c>
       <c r="J169">
-        <v>471.3294733415997</v>
+        <v>4842841.209827235</v>
       </c>
       <c r="K169">
-        <v>2794.757001958545</v>
+        <v>3986364.052114571</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6366,34 +6360,34 @@
         <v>79</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D170" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E170">
         <v>161.142</v>
       </c>
       <c r="F170">
-        <v>79.74856195223042</v>
+        <v>1116530.808698928</v>
       </c>
       <c r="G170">
-        <v>-63.61724143779278</v>
+        <v>4841158.41602417</v>
       </c>
       <c r="H170">
-        <v>1149.296885138698</v>
+        <v>3985426.106570323</v>
       </c>
       <c r="I170">
-        <v>-1826.64944387893</v>
+        <v>1115156.758773997</v>
       </c>
       <c r="J170">
-        <v>457.0936226219462</v>
+        <v>4842792.558167191</v>
       </c>
       <c r="K170">
-        <v>3049.138413689558</v>
+        <v>3986546.658249434</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6401,34 +6395,34 @@
         <v>79</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D171" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E171">
         <v>162.142</v>
       </c>
       <c r="F171">
-        <v>66.23442155538702</v>
+        <v>1116502.211284555</v>
       </c>
       <c r="G171">
-        <v>-47.93214098694364</v>
+        <v>4841174.928846202</v>
       </c>
       <c r="H171">
-        <v>1278.208266107359</v>
+        <v>3985544.792641295</v>
       </c>
       <c r="I171">
-        <v>-1770.801200066592</v>
+        <v>1115193.620736724</v>
       </c>
       <c r="J171">
-        <v>442.8577719022925</v>
+        <v>4842743.906507147</v>
       </c>
       <c r="K171">
-        <v>3282.416889084172</v>
+        <v>3986714.11577099</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6436,34 +6430,34 @@
         <v>79</v>
       </c>
       <c r="B172" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D172" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E172">
         <v>163.142</v>
       </c>
       <c r="F172">
-        <v>57.70330468939743</v>
+        <v>1116484.15849859</v>
       </c>
       <c r="G172">
-        <v>-32.24704053609449</v>
+        <v>4841191.441668234</v>
       </c>
       <c r="H172">
-        <v>1370.332517298504</v>
+        <v>3985629.609554533</v>
       </c>
       <c r="I172">
-        <v>-1713.577744629816</v>
+        <v>1115231.390391371</v>
       </c>
       <c r="J172">
-        <v>428.621921182639</v>
+        <v>4842695.254847103</v>
       </c>
       <c r="K172">
-        <v>3494.592428142385</v>
+        <v>3986866.424679239</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6471,34 +6465,34 @@
         <v>79</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D173" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E173">
         <v>164.142</v>
       </c>
       <c r="F173">
-        <v>51.7537384168927</v>
+        <v>1116471.568558939</v>
       </c>
       <c r="G173">
-        <v>-16.56194008524534</v>
+        <v>4841207.954490265</v>
       </c>
       <c r="H173">
-        <v>1442.069622345446</v>
+        <v>3985695.656439431</v>
       </c>
       <c r="I173">
-        <v>-1654.945214247524</v>
+        <v>1115270.090089016</v>
       </c>
       <c r="J173">
-        <v>414.3860704629853</v>
+        <v>4842646.603187059</v>
       </c>
       <c r="K173">
-        <v>3685.665030864198</v>
+        <v>3987003.584974182</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6506,34 +6500,34 @@
         <v>79</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D174" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E174">
         <v>165.142</v>
       </c>
       <c r="F174">
-        <v>47.31518380842289</v>
+        <v>1116462.176086933</v>
       </c>
       <c r="G174">
-        <v>-0.8768396343961973</v>
+        <v>4841224.467312297</v>
       </c>
       <c r="H174">
-        <v>1500.827875815966</v>
+        <v>3985749.753961226</v>
       </c>
       <c r="I174">
-        <v>-1594.868911745507</v>
+        <v>1115309.742731113</v>
       </c>
       <c r="J174">
-        <v>400.1502197433318</v>
+        <v>4842597.951527015</v>
       </c>
       <c r="K174">
-        <v>3855.634697249608</v>
+        <v>3987125.59665582</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6541,34 +6535,34 @@
         <v>79</v>
       </c>
       <c r="B175" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D175" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E175">
         <v>166.142</v>
       </c>
       <c r="F175">
-        <v>43.84485393037471</v>
+        <v>1116454.832485445</v>
       </c>
       <c r="G175">
-        <v>14.80826081645295</v>
+        <v>4841240.980134328</v>
       </c>
       <c r="H175">
-        <v>1550.591827360878</v>
+        <v>3985795.570613258</v>
       </c>
       <c r="I175">
-        <v>-1533.313285563563</v>
+        <v>1115350.371783042</v>
       </c>
       <c r="J175">
-        <v>385.9143690236783</v>
+        <v>4842549.299866971</v>
       </c>
       <c r="K175">
-        <v>4004.501427298619</v>
+        <v>3987232.45972415</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6576,34 +6570,34 @@
         <v>79</v>
       </c>
       <c r="B176" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D176" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E176">
         <v>167.142</v>
       </c>
       <c r="F176">
-        <v>41.03710437602984</v>
+        <v>1116448.890977135</v>
       </c>
       <c r="G176">
-        <v>30.49336126730211</v>
+        <v>4841257.49295636</v>
       </c>
       <c r="H176">
-        <v>1593.752991959805</v>
+        <v>3985835.30821444</v>
       </c>
       <c r="I176">
-        <v>-1470.241908717025</v>
+        <v>1115392.001287996</v>
       </c>
       <c r="J176">
-        <v>371.6785183040247</v>
+        <v>4842500.648206927</v>
       </c>
       <c r="K176">
-        <v>4132.265221011228</v>
+        <v>3987324.174179174</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6611,34 +6605,34 @@
         <v>79</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D177" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E177">
         <v>168.142</v>
       </c>
       <c r="F177">
-        <v>38.70567178871064</v>
+        <v>1116443.95740816</v>
       </c>
       <c r="G177">
-        <v>46.17846171815124</v>
+        <v>4841274.005778392</v>
       </c>
       <c r="H177">
-        <v>1631.86002934379</v>
+        <v>3985870.392584101</v>
       </c>
       <c r="I177">
-        <v>-1405.617457240245</v>
+        <v>1115434.655881211</v>
       </c>
       <c r="J177">
-        <v>357.4426675843711</v>
+        <v>4842451.996546883</v>
       </c>
       <c r="K177">
-        <v>4238.926078387437</v>
+        <v>3987400.740020892</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6646,34 +6640,34 @@
         <v>79</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D178" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E178">
         <v>169.142</v>
       </c>
       <c r="F178">
-        <v>36.72995808946394</v>
+        <v>1116439.776579659</v>
       </c>
       <c r="G178">
-        <v>61.86356216900041</v>
+        <v>4841290.518600423</v>
       </c>
       <c r="H178">
-        <v>1665.973496038861</v>
+        <v>3985901.800154936</v>
       </c>
       <c r="I178">
-        <v>-1339.401688099254</v>
+        <v>1115478.360804543</v>
       </c>
       <c r="J178">
-        <v>343.2068168647175</v>
+        <v>4842403.344886839</v>
       </c>
       <c r="K178">
-        <v>4324.483999427245</v>
+        <v>3987462.157249304</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6681,34 +6675,34 @@
         <v>79</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D179" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E179">
         <v>170.142</v>
       </c>
       <c r="F179">
-        <v>35.0280734889151</v>
+        <v>1116436.175203789</v>
       </c>
       <c r="G179">
-        <v>77.54866261984955</v>
+        <v>4841307.031422455</v>
       </c>
       <c r="H179">
-        <v>1696.851601384597</v>
+        <v>3985930.228994772</v>
       </c>
       <c r="I179">
-        <v>-1271.555416560556</v>
+        <v>1115523.141921404</v>
       </c>
       <c r="J179">
-        <v>328.970966145064</v>
+        <v>4842354.693226795</v>
       </c>
       <c r="K179">
-        <v>4388.938984130652</v>
+        <v>3987508.425864409</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6716,34 +6710,34 @@
         <v>79</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D180" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E180">
         <v>171.142</v>
       </c>
       <c r="F180">
-        <v>33.54224029330693</v>
+        <v>1116433.031016564</v>
       </c>
       <c r="G180">
-        <v>93.23376307069869</v>
+        <v>4841323.544244487</v>
       </c>
       <c r="H180">
-        <v>1725.055224889498</v>
+        <v>3985956.195493896</v>
       </c>
       <c r="I180">
-        <v>-1202.038493002644</v>
+        <v>1115569.02573207</v>
       </c>
       <c r="J180">
-        <v>314.7351154254104</v>
+        <v>4842306.041566751</v>
       </c>
       <c r="K180">
-        <v>4432.291032497658</v>
+        <v>3987539.545866208</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6751,34 +6745,34 @@
         <v>79</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D181" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E181">
         <v>172.142</v>
       </c>
       <c r="F181">
-        <v>32.23039001452774</v>
+        <v>1116430.254996417</v>
       </c>
       <c r="G181">
-        <v>108.9188635215478</v>
+        <v>4841340.057066518</v>
       </c>
       <c r="H181">
-        <v>1751.010958657047</v>
+        <v>3985980.092406929</v>
       </c>
       <c r="I181">
-        <v>-1130.809779156514</v>
+        <v>1115616.039389361</v>
       </c>
       <c r="J181">
-        <v>300.4992647057568</v>
+        <v>4842257.389906707</v>
       </c>
       <c r="K181">
-        <v>4454.540144528264</v>
+        <v>3987555.5172547</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6786,34 +6780,34 @@
         <v>79</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D182" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E182">
         <v>173.142</v>
       </c>
       <c r="F182">
-        <v>31.06107630416084</v>
+        <v>1116427.780599398</v>
       </c>
       <c r="G182">
-        <v>124.603963972397</v>
+        <v>4841356.56988855</v>
       </c>
       <c r="H182">
-        <v>1775.050825582148</v>
+        <v>3986002.225420559</v>
       </c>
       <c r="I182">
-        <v>-1057.827123761139</v>
+        <v>1115664.210714712</v>
       </c>
       <c r="J182">
-        <v>286.2634139861033</v>
+        <v>4842208.738246663</v>
       </c>
       <c r="K182">
-        <v>4455.686320222469</v>
+        <v>3987556.340029887</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6821,34 +6815,34 @@
         <v>79</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D183" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E183">
         <v>174.142</v>
       </c>
       <c r="F183">
-        <v>30.01026326685202</v>
+        <v>1116425.556962898</v>
       </c>
       <c r="G183">
-        <v>140.2890644232461</v>
+        <v>4841373.082710582</v>
       </c>
       <c r="H183">
-        <v>1797.438318922393</v>
+        <v>3986022.837127636</v>
       </c>
       <c r="I183">
-        <v>-983.0473376194649</v>
+        <v>1115713.568214632</v>
       </c>
       <c r="J183">
-        <v>272.0275632664497</v>
+        <v>4842160.086586618</v>
       </c>
       <c r="K183">
-        <v>4435.729559580273</v>
+        <v>3987542.014191766</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6856,34 +6850,34 @@
         <v>79</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D184" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E184">
         <v>175.142</v>
       </c>
       <c r="F184">
-        <v>29.05922447039585</v>
+        <v>1116423.544459716</v>
       </c>
       <c r="G184">
-        <v>155.9741648740953</v>
+        <v>4841389.595532613</v>
       </c>
       <c r="H184">
-        <v>1818.386053741406</v>
+        <v>3986042.1232785</v>
       </c>
       <c r="I184">
-        <v>-906.426168040193</v>
+        <v>1115764.141097579</v>
       </c>
       <c r="J184">
-        <v>257.7917125467961</v>
+        <v>4842111.434926574</v>
       </c>
       <c r="K184">
-        <v>4394.669862601676</v>
+        <v>3987512.53974034</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6891,34 +6885,34 @@
         <v>79</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D185" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E185">
         <v>176.142</v>
       </c>
       <c r="F185">
-        <v>28.19312606683906</v>
+        <v>1116421.711699791</v>
       </c>
       <c r="G185">
-        <v>171.6592653249444</v>
+        <v>4841406.108354645</v>
       </c>
       <c r="H185">
-        <v>1838.068077368545</v>
+        <v>3986060.244114965</v>
       </c>
       <c r="I185">
-        <v>-827.9182726502154</v>
+        <v>1115815.959291243</v>
       </c>
       <c r="J185">
-        <v>243.5558618271426</v>
+        <v>4842062.78326653</v>
       </c>
       <c r="K185">
-        <v>4332.507229286678</v>
+        <v>3987467.916675607</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6926,34 +6920,34 @@
         <v>79</v>
       </c>
       <c r="B186" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D186" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E186">
         <v>177.142</v>
       </c>
       <c r="F186">
-        <v>27.40004574011784</v>
+        <v>1116420.033454186</v>
       </c>
       <c r="G186">
-        <v>187.3443657757936</v>
+        <v>4841422.621176676</v>
       </c>
       <c r="H186">
-        <v>1856.628667997796</v>
+        <v>3986077.332471014</v>
       </c>
       <c r="I186">
-        <v>-747.4771925621992</v>
+        <v>1115869.053460255</v>
       </c>
       <c r="J186">
-        <v>229.320011107489</v>
+        <v>4842014.131606486</v>
       </c>
       <c r="K186">
-        <v>4249.24165963528</v>
+        <v>3987408.144997567</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6961,34 +6955,34 @@
         <v>79</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D187" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E187">
         <v>178.142</v>
       </c>
       <c r="F187">
-        <v>26.67027757576997</v>
+        <v>1116418.489184112</v>
       </c>
       <c r="G187">
-        <v>203.0294662266427</v>
+        <v>4841439.133998708</v>
       </c>
       <c r="H187">
-        <v>1874.188759023018</v>
+        <v>3986093.499687546</v>
       </c>
       <c r="I187">
-        <v>-665.0553248814526</v>
+        <v>1115923.455024332</v>
       </c>
       <c r="J187">
-        <v>215.0841603878354</v>
+        <v>4841965.479946442</v>
       </c>
       <c r="K187">
-        <v>4144.873153647481</v>
+        <v>3987333.224706222</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6996,34 +6990,34 @@
         <v>79</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D188" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E188">
         <v>179.142</v>
       </c>
       <c r="F188">
-        <v>25.99582940317323</v>
+        <v>1116417.061977253</v>
       </c>
       <c r="G188">
-        <v>218.7145666774919</v>
+        <v>4841455.64682074</v>
       </c>
       <c r="H188">
-        <v>1890.850718721356</v>
+        <v>3986108.840012942</v>
       </c>
       <c r="I188">
-        <v>-580.6038945357946</v>
+        <v>1115979.196176876</v>
       </c>
       <c r="J188">
-        <v>200.8483096681818</v>
+        <v>4841916.828286398</v>
       </c>
       <c r="K188">
-        <v>4019.40171132328</v>
+        <v>3987243.155801571</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7031,34 +7025,34 @@
         <v>79</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D189" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E189">
         <v>180.142</v>
       </c>
       <c r="F189">
-        <v>25.37005268981129</v>
+        <v>1116415.73776458</v>
       </c>
       <c r="G189">
-        <v>234.399667128341</v>
+        <v>4841472.159642771</v>
       </c>
       <c r="H189">
-        <v>1906.701966014159</v>
+        <v>3986123.433932013</v>
       </c>
       <c r="I189">
-        <v>-494.0729254117663</v>
+        <v>1116036.309904021</v>
       </c>
       <c r="J189">
-        <v>186.6124589485283</v>
+        <v>4841868.176626354</v>
       </c>
       <c r="K189">
-        <v>3872.827332662679</v>
+        <v>3987137.938283612</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7066,34 +7060,34 @@
         <v>79</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D190" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E190">
         <v>181.142</v>
       </c>
       <c r="F190">
-        <v>24.78736559374582</v>
+        <v>1116414.504734299</v>
       </c>
       <c r="G190">
-        <v>250.0847675791902</v>
+        <v>4841488.672464803</v>
       </c>
       <c r="H190">
-        <v>1921.817746686331</v>
+        <v>3986137.350722014</v>
       </c>
       <c r="I190">
-        <v>-405.4112107800909</v>
+        <v>1116094.830004153</v>
       </c>
       <c r="J190">
-        <v>172.3766082288747</v>
+        <v>4841819.52496631</v>
       </c>
       <c r="K190">
-        <v>3705.150017665678</v>
+        <v>3987017.572152347</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7101,34 +7095,34 @@
         <v>79</v>
       </c>
       <c r="B191" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D191" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E191">
         <v>182.142</v>
       </c>
       <c r="F191">
-        <v>24.24304269077786</v>
+        <v>1116413.352886889</v>
       </c>
       <c r="G191">
-        <v>265.7698680300393</v>
+        <v>4841505.185286835</v>
       </c>
       <c r="H191">
-        <v>1936.263293639183</v>
+        <v>3986150.650441542</v>
       </c>
       <c r="I191">
-        <v>-314.5662829928924</v>
+        <v>1116154.791107913</v>
       </c>
       <c r="J191">
-        <v>158.1407575092211</v>
+        <v>4841770.873306266</v>
       </c>
       <c r="K191">
-        <v>3516.369766332275</v>
+        <v>3986882.057407776</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7136,34 +7130,34 @@
         <v>79</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D192" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E192">
         <v>183.142</v>
       </c>
       <c r="F192">
-        <v>23.73305321131842</v>
+        <v>1116412.273692797</v>
       </c>
       <c r="G192">
-        <v>281.4549684808885</v>
+        <v>4841521.698108866</v>
       </c>
       <c r="H192">
-        <v>1950.095528231293</v>
+        <v>3986163.385496928</v>
       </c>
       <c r="I192">
-        <v>-221.4843824347346</v>
+        <v>1116216.22869869</v>
       </c>
       <c r="J192">
-        <v>143.9049067895676</v>
+        <v>4841722.221646222</v>
       </c>
       <c r="K192">
-        <v>3306.486578662472</v>
+        <v>3986731.394049899</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7171,34 +7165,34 @@
         <v>79</v>
       </c>
       <c r="B193" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D193" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E193">
         <v>184.142</v>
       </c>
       <c r="F193">
-        <v>23.25393509977584</v>
+        <v>1116411.259825932</v>
       </c>
       <c r="G193">
-        <v>297.1400689317376</v>
+        <v>4841538.210930898</v>
       </c>
       <c r="H193">
-        <v>1963.364414941443</v>
+        <v>3986175.601889445</v>
       </c>
       <c r="I193">
-        <v>-126.1104257091103</v>
+        <v>1116279.179133618</v>
       </c>
       <c r="J193">
-        <v>129.669056069914</v>
+        <v>4841673.569986179</v>
       </c>
       <c r="K193">
-        <v>3075.500454656267</v>
+        <v>3986565.582078715</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7206,34 +7200,34 @@
         <v>79</v>
       </c>
       <c r="B194" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D194" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E194">
         <v>185.142</v>
       </c>
       <c r="F194">
-        <v>22.80269588816223</v>
+        <v>1116410.304953899</v>
       </c>
       <c r="G194">
-        <v>312.8251693825868</v>
+        <v>4841554.723752929</v>
       </c>
       <c r="H194">
-        <v>1976.114050814625</v>
+        <v>3986187.340218339</v>
       </c>
       <c r="I194">
-        <v>-28.38797304154936</v>
+        <v>1116343.679665094</v>
       </c>
       <c r="J194">
-        <v>115.4332053502604</v>
+        <v>4841624.918326134</v>
       </c>
       <c r="K194">
-        <v>2823.411394313662</v>
+        <v>3986384.621494225</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7241,34 +7235,34 @@
         <v>79</v>
       </c>
       <c r="B195" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D195" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E195">
         <v>186.142</v>
       </c>
       <c r="F195">
-        <v>22.37673389101798</v>
+        <v>1116409.403571244</v>
       </c>
       <c r="G195">
-        <v>328.5102698334359</v>
+        <v>4841571.23657496</v>
       </c>
       <c r="H195">
-        <v>1988.383549659557</v>
+        <v>3986198.636494896</v>
       </c>
       <c r="I195">
-        <v>71.74080511994264</v>
+        <v>1116409.768462817</v>
       </c>
       <c r="J195">
-        <v>101.1973546306069</v>
+        <v>4841576.26666609</v>
       </c>
       <c r="K195">
-        <v>2550.219397634657</v>
+        <v>3986188.512296429</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7276,34 +7270,34 @@
         <v>79</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D196" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E196">
         <v>187.142</v>
       </c>
       <c r="F196">
-        <v>21.9737749770112</v>
+        <v>1116408.550865656</v>
       </c>
       <c r="G196">
-        <v>344.195370284285</v>
+        <v>4841587.749396992</v>
       </c>
       <c r="H196">
-        <v>2000.207765719579</v>
+        <v>3986209.522808702</v>
       </c>
       <c r="I196">
-        <v>174.3351623268744</v>
+        <v>1116477.484636384</v>
       </c>
       <c r="J196">
-        <v>86.96150391095328</v>
+        <v>4841527.615006046</v>
       </c>
       <c r="K196">
-        <v>2255.92446461925</v>
+        <v>3985977.254485326</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7311,34 +7305,34 @@
         <v>79</v>
       </c>
       <c r="B197" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D197" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E197">
         <v>188.142</v>
       </c>
       <c r="F197">
-        <v>21.59182140600699</v>
+        <v>1116407.742609694</v>
       </c>
       <c r="G197">
-        <v>359.8804707351342</v>
+        <v>4841604.262219023</v>
       </c>
       <c r="H197">
-        <v>2011.617890567462</v>
+        <v>3986220.027877202</v>
       </c>
       <c r="I197">
-        <v>279.4558111949499</v>
+        <v>1116546.868258427</v>
       </c>
       <c r="J197">
-        <v>72.72565319129976</v>
+        <v>4841478.963346003</v>
       </c>
       <c r="K197">
-        <v>1940.526595267444</v>
+        <v>3985750.848060917</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7346,34 +7340,34 @@
         <v>79</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D198" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E198">
         <v>189.142</v>
       </c>
       <c r="F198">
-        <v>21.22911010273643</v>
+        <v>1116406.975072498</v>
       </c>
       <c r="G198">
-        <v>375.5655711859834</v>
+        <v>4841620.775041055</v>
       </c>
       <c r="H198">
-        <v>2022.641948975486</v>
+        <v>3986230.17750223</v>
       </c>
       <c r="I198">
-        <v>387.1649593321769</v>
+        <v>1116617.960388331</v>
       </c>
       <c r="J198">
-        <v>58.48980247164616</v>
+        <v>4841430.311685958</v>
       </c>
       <c r="K198">
-        <v>1604.025789579234</v>
+        <v>3985509.293023201</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7381,34 +7375,34 @@
         <v>79</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D199" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E199">
         <v>190.142</v>
       </c>
       <c r="F199">
-        <v>20.88407837746608</v>
+        <v>1116406.244947241</v>
       </c>
       <c r="G199">
-        <v>391.2506716368325</v>
+        <v>4841637.287863087</v>
       </c>
       <c r="H199">
-        <v>2033.305213608938</v>
+        <v>3986239.994951811</v>
       </c>
       <c r="I199">
-        <v>497.5263461516849</v>
+        <v>1116690.80309653</v>
       </c>
       <c r="J199">
-        <v>44.25395175199256</v>
+        <v>4841381.660025914</v>
       </c>
       <c r="K199">
-        <v>1246.422047554625</v>
+        <v>3985252.589372179</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7416,34 +7410,34 @@
         <v>79</v>
       </c>
       <c r="B200" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D200" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E200">
         <v>191.142</v>
       </c>
       <c r="F200">
-        <v>20.55533557274318</v>
+        <v>1116405.549291141</v>
       </c>
       <c r="G200">
-        <v>406.9357720876816</v>
+        <v>4841653.800685118</v>
       </c>
       <c r="H200">
-        <v>2043.630553985622</v>
+        <v>3986249.501281442</v>
       </c>
       <c r="I200">
-        <v>610.6052805910073</v>
+        <v>1116765.439489405</v>
       </c>
       <c r="J200">
-        <v>30.01810103233903</v>
+        <v>4841333.00836587</v>
       </c>
       <c r="K200">
-        <v>867.7153691936162</v>
+        <v>3984980.737107852</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7451,34 +7445,34 @@
         <v>79</v>
       </c>
       <c r="B201" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D201" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E201">
         <v>192.142</v>
       </c>
       <c r="F201">
-        <v>20.24163946269017</v>
+        <v>1116404.885475509</v>
       </c>
       <c r="G201">
-        <v>422.6208725385308</v>
+        <v>4841670.31350715</v>
       </c>
       <c r="H201">
-        <v>2053.638731821652</v>
+        <v>3986258.715606011</v>
       </c>
       <c r="I201">
-        <v>726.4686797601884</v>
+        <v>1116841.91373479</v>
       </c>
       <c r="J201">
-        <v>15.78225031268544</v>
+        <v>4841284.356705826</v>
       </c>
       <c r="K201">
-        <v>467.905754496205</v>
+        <v>3984693.736230216</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7486,34 +7480,34 @@
         <v>79</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D202" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E202">
         <v>193.142</v>
       </c>
       <c r="F202">
-        <v>19.94187649146808</v>
+        <v>1116404.251143939</v>
       </c>
       <c r="G202">
-        <v>438.30597298938</v>
+        <v>4841686.826329182</v>
       </c>
       <c r="H202">
-        <v>2063.348652354173</v>
+        <v>3986267.655331184</v>
       </c>
       <c r="I202">
-        <v>845.1851085415368</v>
+        <v>1116920.271088113</v>
       </c>
       <c r="J202">
-        <v>1.546399593031845</v>
+        <v>4841235.705045781</v>
       </c>
       <c r="K202">
-        <v>46.99320346239328</v>
+        <v>3984391.586739276</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7521,34 +7515,34 @@
         <v>79</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D203" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E203">
         <v>194.142</v>
       </c>
       <c r="F203">
-        <v>19.65504513421116</v>
+        <v>1116403.644177092</v>
       </c>
       <c r="G203">
-        <v>453.9910734402291</v>
+        <v>4841703.339151213</v>
       </c>
       <c r="H203">
-        <v>2072.777579287858</v>
+        <v>3986276.336351299</v>
       </c>
       <c r="I203">
-        <v>966.8248201645132</v>
+        <v>1117000.557919174</v>
       </c>
       <c r="J203">
-        <v>-12.68945112662168</v>
+        <v>4841187.053385737</v>
       </c>
       <c r="K203">
-        <v>-395.022283907818</v>
+        <v>3984074.288635029</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7556,34 +7550,34 @@
         <v>79</v>
       </c>
       <c r="B204" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D204" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E204">
         <v>195.142</v>
       </c>
       <c r="F204">
-        <v>19.3802418137675</v>
+        <v>1116403.062662901</v>
       </c>
       <c r="G204">
-        <v>469.6761738910782</v>
+        <v>4841719.851973245</v>
       </c>
       <c r="H204">
-        <v>2081.941319505918</v>
+        <v>3986284.77321943</v>
       </c>
       <c r="I204">
-        <v>1091.459797779723</v>
+        <v>1117082.821739587</v>
       </c>
       <c r="J204">
-        <v>-26.92530184627528</v>
+        <v>4841138.401725694</v>
       </c>
       <c r="K204">
-        <v>-858.1407076144313</v>
+        <v>3983741.841917475</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7591,34 +7585,34 @@
         <v>79</v>
       </c>
       <c r="B205" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D205" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E205">
         <v>196.142</v>
       </c>
       <c r="F205">
-        <v>19.11664892199077</v>
+        <v>1116402.504871215</v>
       </c>
       <c r="G205">
-        <v>485.3612743419274</v>
+        <v>4841736.364795276</v>
       </c>
       <c r="H205">
-        <v>2090.85438250998</v>
+        <v>3986292.97929418</v>
       </c>
       <c r="I205">
-        <v>1219.163797056632</v>
+        <v>1117167.111230896</v>
       </c>
       <c r="J205">
-        <v>-41.16115256592887</v>
+        <v>4841089.750065649</v>
       </c>
       <c r="K205">
-        <v>-1342.362067657447</v>
+        <v>3983394.246586615</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7626,34 +7620,34 @@
         <v>79</v>
       </c>
       <c r="B206" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D206" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E206">
         <v>197.142</v>
       </c>
       <c r="F206">
-        <v>18.86352458381162</v>
+        <v>1116401.969232146</v>
       </c>
       <c r="G206">
-        <v>501.0463747927765</v>
+        <v>4841752.877617308</v>
       </c>
       <c r="H206">
-        <v>2099.530118627507</v>
+        <v>3986300.96686692</v>
       </c>
       <c r="I206">
-        <v>1350.012389830209</v>
+        <v>1117253.476273384</v>
       </c>
       <c r="J206">
-        <v>-55.39700328558246</v>
+        <v>4841041.098405605</v>
       </c>
       <c r="K206">
-        <v>-1847.686364036862</v>
+        <v>3983031.502642449</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7661,34 +7655,34 @@
         <v>79</v>
       </c>
       <c r="B207" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D207" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E207">
         <v>198.142</v>
       </c>
       <c r="F207">
-        <v>18.62019387220918</v>
+        <v>1116401.454317472</v>
       </c>
       <c r="G207">
-        <v>516.7314752436257</v>
+        <v>4841769.39043934</v>
       </c>
       <c r="H207">
-        <v>2107.980839291934</v>
+        <v>3986308.747272537</v>
       </c>
       <c r="I207">
-        <v>1484.083008822337</v>
+        <v>1117341.967975589</v>
       </c>
       <c r="J207">
-        <v>-69.63285400523593</v>
+        <v>4840992.446745561</v>
       </c>
       <c r="K207">
-        <v>-2374.113596752674</v>
+        <v>3982653.610084977</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7696,34 +7690,34 @@
         <v>79</v>
       </c>
       <c r="B208" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D208" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E208">
         <v>199.142</v>
       </c>
       <c r="F208">
-        <v>18.38604123718184</v>
+        <v>1116400.958824623</v>
       </c>
       <c r="G208">
-        <v>532.4165756944749</v>
+        <v>4841785.903261371</v>
       </c>
       <c r="H208">
-        <v>2116.217922115584</v>
+        <v>3986316.330986165</v>
       </c>
       <c r="I208">
-        <v>1621.454993464439</v>
+        <v>1117432.63870455</v>
       </c>
       <c r="J208">
-        <v>-83.86870472488953</v>
+        <v>4840943.795085518</v>
       </c>
       <c r="K208">
-        <v>-2921.64376580489</v>
+        <v>3982260.568914197</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7731,34 +7725,34 @@
         <v>79</v>
       </c>
       <c r="B209" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C209" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D209" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E209">
         <v>200.142</v>
       </c>
       <c r="F209">
-        <v>18.16050395534571</v>
+        <v>1116400.481562813</v>
       </c>
       <c r="G209">
-        <v>548.1016761453239</v>
+        <v>4841802.416083403</v>
       </c>
       <c r="H209">
-        <v>2124.25190300578</v>
+        <v>3986323.727707997</v>
       </c>
       <c r="I209">
-        <v>1762.209636848444</v>
+        <v>1117525.542116796</v>
       </c>
       <c r="J209">
-        <v>-98.10455544454312</v>
+        <v>4840895.143425473</v>
       </c>
       <c r="K209">
-        <v>-3490.276871193509</v>
+        <v>3981852.379130112</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7766,34 +7760,34 @@
         <v>79</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D210" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E210">
         <v>201.142</v>
       </c>
       <c r="F210">
-        <v>17.94306644147359</v>
+        <v>1116400.021441007</v>
       </c>
       <c r="G210">
-        <v>563.7867765961731</v>
+        <v>4841818.928905435</v>
       </c>
       <c r="H210">
-        <v>2132.092557195377</v>
+        <v>3986330.946437893</v>
       </c>
       <c r="I210">
-        <v>1906.430233833882</v>
+        <v>1117620.733190099</v>
       </c>
       <c r="J210">
-        <v>-112.3404061641967</v>
+        <v>4840846.491765429</v>
       </c>
       <c r="K210">
-        <v>-4080.012912918527</v>
+        <v>3981429.04073272</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7801,34 +7795,34 @@
         <v>79</v>
       </c>
       <c r="B211" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C211" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D211" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E211">
         <v>202.142</v>
       </c>
       <c r="F211">
-        <v>17.73325529108682</v>
+        <v>1116399.577457429</v>
       </c>
       <c r="G211">
-        <v>579.4718770470223</v>
+        <v>4841835.441727466</v>
       </c>
       <c r="H211">
-        <v>2139.748970751072</v>
+        <v>3986337.995541205</v>
       </c>
       <c r="I211">
-        <v>2054.202130339573</v>
+        <v>1117718.268256008</v>
       </c>
       <c r="J211">
-        <v>-126.5762568838503</v>
+        <v>4840797.840105386</v>
       </c>
       <c r="K211">
-        <v>-4690.851890979947</v>
+        <v>3980990.553722022</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7836,34 +7830,34 @@
         <v>79</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C212" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D212" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E212">
         <v>203.142</v>
       </c>
       <c r="F212">
-        <v>17.53063494561747</v>
+        <v>1116399.148690389</v>
       </c>
       <c r="G212">
-        <v>595.1569774978715</v>
+        <v>4841851.954549498</v>
       </c>
       <c r="H212">
-        <v>2147.22960387148</v>
+        <v>3986344.882807068</v>
       </c>
       <c r="I212">
-        <v>2205.61277384906</v>
+        <v>1117818.205033184</v>
       </c>
       <c r="J212">
-        <v>-140.8121076035038</v>
+        <v>4840749.188445342</v>
       </c>
       <c r="K212">
-        <v>-5322.793805377762</v>
+        <v>3980536.918098018</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7871,34 +7865,34 @@
         <v>79</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D213" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E213">
         <v>204.142</v>
       </c>
       <c r="F213">
-        <v>17.33480388981695</v>
+        <v>1116398.734290236</v>
       </c>
       <c r="G213">
-        <v>610.8420779487205</v>
+        <v>4841868.46737153</v>
       </c>
       <c r="H213">
-        <v>2154.542347080844</v>
+        <v>3986351.615500124</v>
       </c>
       <c r="I213">
-        <v>2360.751765159733</v>
+        <v>1117920.602661559</v>
       </c>
       <c r="J213">
-        <v>-155.0479583231574</v>
+        <v>4840700.536785297</v>
       </c>
       <c r="K213">
-        <v>-5975.838656111983</v>
+        <v>3980068.133860707</v>
       </c>
     </row>
   </sheetData>
